--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1281,8 +1281,11 @@
       <c r="JM1" s="2" t="n">
         <v>10746</v>
       </c>
-      <c r="JN1" t="n">
+      <c r="JN1" s="2" t="n">
         <v>10746</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10755</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2107,8 +2110,11 @@
       <c r="JM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JN2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -2933,8 +2939,11 @@
       <c r="JM3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JN3" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3759,7 +3768,10 @@
       <c r="JM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4585,8 +4597,11 @@
       <c r="JM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JN5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5411,8 +5426,11 @@
       <c r="JM6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JN6" t="n">
+      <c r="JN6" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6237,8 +6255,11 @@
       <c r="JM7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JN7" t="n">
+      <c r="JN7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7063,8 +7084,11 @@
       <c r="JM8" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="JN8" t="n">
+      <c r="JN8" s="2" t="n">
         <v>-13</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7889,8 +7913,11 @@
       <c r="JM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN9" t="n">
+      <c r="JN9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8715,8 +8742,11 @@
       <c r="JM10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN10" t="n">
+      <c r="JN10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9541,8 +9571,11 @@
       <c r="JM11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JN11" t="n">
+      <c r="JN11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10367,8 +10400,11 @@
       <c r="JM12" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JN12" t="n">
+      <c r="JN12" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11193,8 +11229,11 @@
       <c r="JM13" s="2" t="n">
         <v>316</v>
       </c>
-      <c r="JN13" t="n">
+      <c r="JN13" s="2" t="n">
         <v>316</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12019,8 +12058,11 @@
       <c r="JM14" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="JN14" t="n">
+      <c r="JN14" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12845,8 +12887,11 @@
       <c r="JM15" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JN15" t="n">
+      <c r="JN15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13671,8 +13716,11 @@
       <c r="JM16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JN16" t="n">
+      <c r="JN16" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14497,8 +14545,11 @@
       <c r="JM17" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JN17" t="n">
+      <c r="JN17" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15323,8 +15374,11 @@
       <c r="JM18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JN18" t="n">
+      <c r="JN18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16149,8 +16203,11 @@
       <c r="JM19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN19" t="n">
+      <c r="JN19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16975,8 +17032,11 @@
       <c r="JM20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JN20" t="n">
+      <c r="JN20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17801,8 +17861,11 @@
       <c r="JM21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN21" t="n">
+      <c r="JN21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18627,7 +18690,10 @@
       <c r="JM22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JN22" t="n">
+      <c r="JN22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19453,7 +19519,10 @@
       <c r="JM23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN23" t="n">
+      <c r="JN23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20279,8 +20348,11 @@
       <c r="JM24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JN24" t="n">
+      <c r="JN24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21105,8 +21177,11 @@
       <c r="JM25" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="JN25" t="n">
+      <c r="JN25" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>56.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21931,8 +22006,11 @@
       <c r="JM26" s="2" t="n">
         <v>28.73</v>
       </c>
-      <c r="JN26" t="n">
+      <c r="JN26" s="2" t="n">
         <v>28.73</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>22.71</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22757,8 +22835,11 @@
       <c r="JM27" s="2" t="n">
         <v>13.17</v>
       </c>
-      <c r="JN27" t="n">
+      <c r="JN27" s="2" t="n">
         <v>13.17</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>12.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23583,8 +23664,11 @@
       <c r="JM28" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JN28" t="n">
+      <c r="JN28" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24409,8 +24493,11 @@
       <c r="JM29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JN29" t="n">
+      <c r="JN29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25235,8 +25322,11 @@
       <c r="JM30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JN30" t="n">
+      <c r="JN30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26061,8 +26151,11 @@
       <c r="JM31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN31" t="n">
+      <c r="JN31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26887,8 +26980,11 @@
       <c r="JM32" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="JN32" t="n">
+      <c r="JN32" s="2" t="n">
         <v>2.29</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27713,8 +27809,11 @@
       <c r="JM33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN33" t="n">
+      <c r="JN33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28539,8 +28638,11 @@
       <c r="JM34" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="JN34" t="n">
+      <c r="JN34" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29365,8 +29467,11 @@
       <c r="JM35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JN35" t="n">
+      <c r="JN35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30191,8 +30296,11 @@
       <c r="JM36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JN36" t="n">
+      <c r="JN36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31017,8 +31125,11 @@
       <c r="JM37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JN37" t="n">
+      <c r="JN37" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31843,8 +31954,11 @@
       <c r="JM38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JN38" t="n">
+      <c r="JN38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32669,8 +32783,11 @@
       <c r="JM39" s="2" t="n">
         <v>122.7</v>
       </c>
-      <c r="JN39" t="n">
+      <c r="JN39" s="2" t="n">
         <v>122.7</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>113.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33495,8 +33612,11 @@
       <c r="JM40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN40" t="n">
+      <c r="JN40" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34321,8 +34441,11 @@
       <c r="JM41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN41" t="n">
+      <c r="JN41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35147,8 +35270,11 @@
       <c r="JM42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN42" t="n">
+      <c r="JN42" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JO42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -35973,8 +36099,11 @@
       <c r="JM43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN43" t="n">
+      <c r="JN43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36799,8 +36928,11 @@
       <c r="JM44" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="JN44" t="n">
+      <c r="JN44" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37625,8 +37757,11 @@
       <c r="JM45" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JN45" t="n">
+      <c r="JN45" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38451,8 +38586,11 @@
       <c r="JM46" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JN46" t="n">
+      <c r="JN46" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39277,8 +39415,11 @@
       <c r="JM47" s="2" t="n">
         <v>65.8</v>
       </c>
-      <c r="JN47" t="n">
+      <c r="JN47" s="2" t="n">
         <v>65.8</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40103,8 +40244,11 @@
       <c r="JM48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JN48" t="n">
+      <c r="JN48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40929,8 +41073,11 @@
       <c r="JM49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JN49" t="n">
+      <c r="JN49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41755,8 +41902,11 @@
       <c r="JM50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JN50" t="n">
+      <c r="JN50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42581,8 +42731,11 @@
       <c r="JM51" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JN51" t="n">
+      <c r="JN51" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43407,8 +43560,11 @@
       <c r="JM52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JN52" t="n">
+      <c r="JN52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44233,8 +44389,11 @@
       <c r="JM53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN53" t="n">
+      <c r="JN53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45059,8 +45218,11 @@
       <c r="JM54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN54" t="n">
+      <c r="JN54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45885,8 +46047,11 @@
       <c r="JM55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN55" t="n">
+      <c r="JN55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46711,8 +46876,11 @@
       <c r="JM56" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="JN56" t="n">
+      <c r="JN56" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47537,8 +47705,11 @@
       <c r="JM57" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JN57" t="n">
+      <c r="JN57" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48363,8 +48534,11 @@
       <c r="JM58" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JN58" t="n">
+      <c r="JN58" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49189,8 +49363,11 @@
       <c r="JM59" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="JN59" t="n">
+      <c r="JN59" s="2" t="n">
         <v>340</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50015,8 +50192,11 @@
       <c r="JM60" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="JN60" t="n">
+      <c r="JN60" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -50841,8 +51021,11 @@
       <c r="JM61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JN61" t="n">
+      <c r="JN61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51667,8 +51850,11 @@
       <c r="JM62" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JN62" t="n">
+      <c r="JN62" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52493,8 +52679,11 @@
       <c r="JM63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JN63" t="n">
+      <c r="JN63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53319,8 +53508,11 @@
       <c r="JM64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN64" t="n">
+      <c r="JN64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54145,8 +54337,11 @@
       <c r="JM65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JN65" t="n">
+      <c r="JN65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -54971,8 +55166,11 @@
       <c r="JM66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN66" t="n">
+      <c r="JN66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55797,8 +55995,11 @@
       <c r="JM67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN67" t="n">
+      <c r="JN67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56623,8 +56824,11 @@
       <c r="JM68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN68" t="n">
+      <c r="JN68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57449,8 +57653,11 @@
       <c r="JM69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN69" t="n">
+      <c r="JN69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58275,8 +58482,11 @@
       <c r="JM70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN70" t="n">
+      <c r="JN70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59101,8 +59311,11 @@
       <c r="JM71" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JN71" t="n">
+      <c r="JN71" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59927,8 +60140,11 @@
       <c r="JM72" s="2" t="n">
         <v>24.29</v>
       </c>
-      <c r="JN72" t="n">
+      <c r="JN72" s="2" t="n">
         <v>24.29</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>41.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60753,8 +60969,11 @@
       <c r="JM73" s="2" t="n">
         <v>15.45</v>
       </c>
-      <c r="JN73" t="n">
+      <c r="JN73" s="2" t="n">
         <v>15.45</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>18.7</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61579,7 +61798,10 @@
       <c r="JM74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JN74" t="n">
+      <c r="JN74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -62405,8 +62627,11 @@
       <c r="JM75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN75" t="n">
+      <c r="JN75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63231,8 +63456,11 @@
       <c r="JM76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN76" t="n">
+      <c r="JN76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64057,8 +64285,11 @@
       <c r="JM77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JN77" t="n">
+      <c r="JN77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -64883,8 +65114,11 @@
       <c r="JM78" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="JN78" t="n">
+      <c r="JN78" s="2" t="n">
         <v>2.41</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65709,8 +65943,11 @@
       <c r="JM79" s="2" t="n">
         <v>3.79</v>
       </c>
-      <c r="JN79" t="n">
+      <c r="JN79" s="2" t="n">
         <v>3.79</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66535,8 +66772,11 @@
       <c r="JM80" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="JN80" t="n">
+      <c r="JN80" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67361,8 +67601,11 @@
       <c r="JM81" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="JN81" t="n">
+      <c r="JN81" s="2" t="n">
         <v>26.4</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68187,8 +68430,11 @@
       <c r="JM82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JN82" t="n">
+      <c r="JN82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>190.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69013,8 +69259,11 @@
       <c r="JM83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JN83" t="n">
+      <c r="JN83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -69839,8 +70088,11 @@
       <c r="JM84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JN84" t="n">
+      <c r="JN84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70665,8 +70917,11 @@
       <c r="JM85" s="2" t="n">
         <v>106.7</v>
       </c>
-      <c r="JN85" t="n">
+      <c r="JN85" s="2" t="n">
         <v>106.7</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -71491,8 +71746,11 @@
       <c r="JM86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN86" t="n">
+      <c r="JN86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72317,8 +72575,11 @@
       <c r="JM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN87" t="n">
+      <c r="JN87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73143,8 +73404,11 @@
       <c r="JM88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN88" t="n">
+      <c r="JN88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -73969,8 +74233,11 @@
       <c r="JM89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN89" t="n">
+      <c r="JN89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -74795,8 +75062,11 @@
       <c r="JM90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JN90" t="n">
+      <c r="JN90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75621,8 +75891,11 @@
       <c r="JM91" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="JN91" t="n">
+      <c r="JN91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76447,8 +76720,11 @@
       <c r="JM92" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JN92" t="n">
+      <c r="JN92" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77273,8 +77549,11 @@
       <c r="JM93" s="2" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="JN93" t="n">
+      <c r="JN93" s="2" t="n">
         <v>67.40000000000001</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78099,8 +78378,11 @@
       <c r="JM94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN94" t="n">
+      <c r="JN94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -78925,8 +79207,11 @@
       <c r="JM95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN95" t="n">
+      <c r="JN95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -79751,8 +80036,11 @@
       <c r="JM96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN96" t="n">
+      <c r="JN96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -80577,7 +80865,10 @@
       <c r="JM97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JN97" t="n">
+      <c r="JN97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -81403,8 +81694,11 @@
       <c r="JM98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN98" t="n">
+      <c r="JN98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82229,8 +82523,11 @@
       <c r="JM99" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JN99" t="n">
+      <c r="JN99" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83055,8 +83352,11 @@
       <c r="JM100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN100" t="n">
+      <c r="JN100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -83881,8 +84181,11 @@
       <c r="JM101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN101" t="n">
+      <c r="JN101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -84707,8 +85010,11 @@
       <c r="JM102" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JN102" t="n">
+      <c r="JN102" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JP102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1287,8 +1287,11 @@
       <c r="JO1" s="2" t="n">
         <v>10755</v>
       </c>
-      <c r="JP1" t="n">
+      <c r="JP1" s="2" t="n">
         <v>10761</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10776</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2119,7 +2122,10 @@
       <c r="JO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2951,8 +2957,11 @@
       <c r="JO3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JP3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3783,8 +3792,11 @@
       <c r="JO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4615,7 +4627,10 @@
       <c r="JO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5447,8 +5462,11 @@
       <c r="JO6" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JP6" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6279,8 +6297,11 @@
       <c r="JO7" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JP7" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7111,8 +7132,11 @@
       <c r="JO8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JP8" s="2" t="n">
         <v>-11</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7943,8 +7967,11 @@
       <c r="JO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JP9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8775,8 +8802,11 @@
       <c r="JO10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JP10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9607,8 +9637,11 @@
       <c r="JO11" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JP11" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10439,7 +10472,10 @@
       <c r="JO12" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JQ12" t="n">
         <v>149</v>
       </c>
     </row>
@@ -11271,8 +11307,11 @@
       <c r="JO13" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12103,8 +12142,11 @@
       <c r="JO14" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="JP14" t="n">
+      <c r="JP14" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12935,8 +12977,11 @@
       <c r="JO15" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JP15" t="n">
+      <c r="JP15" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13767,8 +13812,11 @@
       <c r="JO16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JP16" t="n">
+      <c r="JP16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14599,8 +14647,11 @@
       <c r="JO17" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP17" t="n">
+      <c r="JP17" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15431,8 +15482,11 @@
       <c r="JO18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP18" t="n">
+      <c r="JP18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16263,8 +16317,11 @@
       <c r="JO19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP19" t="n">
+      <c r="JP19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17095,8 +17152,11 @@
       <c r="JO20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JP20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17927,8 +17987,11 @@
       <c r="JO21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JP21" t="n">
+      <c r="JP21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18759,8 +18822,11 @@
       <c r="JO22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP22" t="n">
+      <c r="JP22" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19591,7 +19657,10 @@
       <c r="JO23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP23" t="n">
+      <c r="JP23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20423,8 +20492,11 @@
       <c r="JO24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP24" t="n">
+      <c r="JP24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21255,8 +21327,11 @@
       <c r="JO25" s="2" t="n">
         <v>56.7</v>
       </c>
-      <c r="JP25" t="n">
+      <c r="JP25" s="2" t="n">
         <v>76.5</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22087,8 +22162,11 @@
       <c r="JO26" s="2" t="n">
         <v>22.71</v>
       </c>
-      <c r="JP26" t="n">
+      <c r="JP26" s="2" t="n">
         <v>26.92</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>17.29</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22919,8 +22997,11 @@
       <c r="JO27" s="2" t="n">
         <v>12.87</v>
       </c>
-      <c r="JP27" t="n">
+      <c r="JP27" s="2" t="n">
         <v>20.59</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23751,8 +23832,11 @@
       <c r="JO28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP28" t="n">
+      <c r="JP28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24583,8 +24667,11 @@
       <c r="JO29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP29" t="n">
+      <c r="JP29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25415,8 +25502,11 @@
       <c r="JO30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP30" t="n">
+      <c r="JP30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26247,8 +26337,11 @@
       <c r="JO31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JP31" t="n">
+      <c r="JP31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27079,8 +27172,11 @@
       <c r="JO32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP32" t="n">
+      <c r="JP32" s="2" t="n">
         <v>3.18</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27911,8 +28007,11 @@
       <c r="JO33" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="JP33" t="n">
+      <c r="JP33" s="2" t="n">
         <v>4.15</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28743,8 +28842,11 @@
       <c r="JO34" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP34" t="n">
+      <c r="JP34" s="2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29575,8 +29677,11 @@
       <c r="JO35" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="JP35" t="n">
+      <c r="JP35" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30407,8 +30512,11 @@
       <c r="JO36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="JP36" t="n">
+      <c r="JP36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31239,8 +31347,11 @@
       <c r="JO37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JP37" t="n">
+      <c r="JP37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32071,8 +32182,11 @@
       <c r="JO38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="JP38" t="n">
+      <c r="JP38" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32903,8 +33017,11 @@
       <c r="JO39" s="2" t="n">
         <v>113.2</v>
       </c>
-      <c r="JP39" t="n">
+      <c r="JP39" s="2" t="n">
         <v>123.7</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>112.6</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33735,8 +33852,11 @@
       <c r="JO40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP40" t="n">
+      <c r="JP40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34567,7 +34687,10 @@
       <c r="JO41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP41" t="n">
+      <c r="JP41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35399,8 +35522,11 @@
       <c r="JO42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP42" t="n">
+      <c r="JP42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36231,7 +36357,10 @@
       <c r="JO43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP43" t="n">
+      <c r="JP43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ43" t="n">
         <v>9</v>
       </c>
     </row>
@@ -37063,8 +37192,11 @@
       <c r="JO44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JP44" t="n">
+      <c r="JP44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37895,8 +38027,11 @@
       <c r="JO45" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JP45" t="n">
+      <c r="JP45" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38727,8 +38862,11 @@
       <c r="JO46" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="JP46" t="n">
+      <c r="JP46" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39559,8 +39697,11 @@
       <c r="JO47" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="JP47" t="n">
+      <c r="JP47" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40391,8 +40532,11 @@
       <c r="JO48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP48" t="n">
+      <c r="JP48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41223,8 +41367,11 @@
       <c r="JO49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP49" t="n">
+      <c r="JP49" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42055,8 +42202,11 @@
       <c r="JO50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JP50" t="n">
+      <c r="JP50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42887,8 +43037,11 @@
       <c r="JO51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JP51" t="n">
+      <c r="JP51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43719,8 +43872,11 @@
       <c r="JO52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP52" t="n">
+      <c r="JP52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44551,8 +44707,11 @@
       <c r="JO53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP53" t="n">
+      <c r="JP53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45383,8 +45542,11 @@
       <c r="JO54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP54" t="n">
+      <c r="JP54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46215,8 +46377,11 @@
       <c r="JO55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JP55" t="n">
+      <c r="JP55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47047,8 +47212,11 @@
       <c r="JO56" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JP56" t="n">
+      <c r="JP56" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47879,8 +48047,11 @@
       <c r="JO57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JP57" t="n">
+      <c r="JP57" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48711,8 +48882,11 @@
       <c r="JO58" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JP58" t="n">
+      <c r="JP58" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49543,8 +49717,11 @@
       <c r="JO59" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="JP59" t="n">
+      <c r="JP59" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50375,8 +50552,11 @@
       <c r="JO60" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="JP60" t="n">
+      <c r="JP60" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51207,8 +51387,11 @@
       <c r="JO61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JP61" t="n">
+      <c r="JP61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52039,8 +52222,11 @@
       <c r="JO62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JP62" t="n">
+      <c r="JP62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52871,8 +53057,11 @@
       <c r="JO63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JP63" t="n">
+      <c r="JP63" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53703,8 +53892,11 @@
       <c r="JO64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP64" t="n">
+      <c r="JP64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54535,8 +54727,11 @@
       <c r="JO65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JP65" t="n">
+      <c r="JP65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55367,8 +55562,11 @@
       <c r="JO66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP66" t="n">
+      <c r="JP66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56199,8 +56397,11 @@
       <c r="JO67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP67" t="n">
+      <c r="JP67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57031,8 +57232,11 @@
       <c r="JO68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP68" t="n">
+      <c r="JP68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57863,8 +58067,11 @@
       <c r="JO69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP69" t="n">
+      <c r="JP69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58695,8 +58902,11 @@
       <c r="JO70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JP70" t="n">
+      <c r="JP70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59527,8 +59737,11 @@
       <c r="JO71" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP71" t="n">
+      <c r="JP71" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60359,8 +60572,11 @@
       <c r="JO72" s="2" t="n">
         <v>41.56</v>
       </c>
-      <c r="JP72" t="n">
+      <c r="JP72" s="2" t="n">
         <v>24.14</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>27.08</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61191,8 +61407,11 @@
       <c r="JO73" s="2" t="n">
         <v>18.7</v>
       </c>
-      <c r="JP73" t="n">
+      <c r="JP73" s="2" t="n">
         <v>14.7</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>13.54</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62023,8 +62242,11 @@
       <c r="JO74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP74" t="n">
+      <c r="JP74" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62855,8 +63077,11 @@
       <c r="JO75" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JP75" t="n">
+      <c r="JP75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63687,8 +63912,11 @@
       <c r="JO76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP76" t="n">
+      <c r="JP76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64519,8 +64747,11 @@
       <c r="JO77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JP77" t="n">
+      <c r="JP77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65351,8 +65582,11 @@
       <c r="JO78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JP78" t="n">
+      <c r="JP78" s="2" t="n">
         <v>2.57</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66183,8 +66417,11 @@
       <c r="JO79" s="2" t="n">
         <v>5.56</v>
       </c>
-      <c r="JP79" t="n">
+      <c r="JP79" s="2" t="n">
         <v>4.21</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67015,8 +67252,11 @@
       <c r="JO80" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP80" t="n">
+      <c r="JP80" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67847,8 +68087,11 @@
       <c r="JO81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JP81" t="n">
+      <c r="JP81" s="2" t="n">
         <v>23.7</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68679,8 +68922,11 @@
       <c r="JO82" s="2" t="n">
         <v>190.2</v>
       </c>
-      <c r="JP82" t="n">
+      <c r="JP82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69511,8 +69757,11 @@
       <c r="JO83" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JP83" t="n">
+      <c r="JP83" s="2" t="n">
         <v>89.8</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70343,8 +70592,11 @@
       <c r="JO84" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="JP84" t="n">
+      <c r="JP84" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71175,8 +71427,11 @@
       <c r="JO85" s="2" t="n">
         <v>116.8</v>
       </c>
-      <c r="JP85" t="n">
+      <c r="JP85" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>107.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72007,8 +72262,11 @@
       <c r="JO86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP86" t="n">
+      <c r="JP86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -72839,8 +73097,11 @@
       <c r="JO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP87" t="n">
+      <c r="JP87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73671,8 +73932,11 @@
       <c r="JO88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP88" t="n">
+      <c r="JP88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74503,8 +74767,11 @@
       <c r="JO89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP89" t="n">
+      <c r="JP89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75335,8 +75602,11 @@
       <c r="JO90" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JP90" t="n">
+      <c r="JP90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76167,8 +76437,11 @@
       <c r="JO91" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="JP91" t="n">
+      <c r="JP91" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76999,8 +77272,11 @@
       <c r="JO92" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="JP92" t="n">
+      <c r="JP92" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77831,8 +78107,11 @@
       <c r="JO93" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="JP93" t="n">
+      <c r="JP93" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78663,8 +78942,11 @@
       <c r="JO94" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JP94" t="n">
+      <c r="JP94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79495,8 +79777,11 @@
       <c r="JO95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP95" t="n">
+      <c r="JP95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80327,7 +80612,10 @@
       <c r="JO96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP96" t="n">
+      <c r="JP96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -81159,8 +81447,11 @@
       <c r="JO97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP97" t="n">
+      <c r="JP97" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81991,8 +82282,11 @@
       <c r="JO98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JP98" t="n">
+      <c r="JP98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82823,8 +83117,11 @@
       <c r="JO99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JP99" t="n">
+      <c r="JP99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83655,8 +83952,11 @@
       <c r="JO100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP100" t="n">
+      <c r="JP100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84487,8 +84787,11 @@
       <c r="JO101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP101" t="n">
+      <c r="JP101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85319,8 +85622,11 @@
       <c r="JO102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JP102" t="n">
+      <c r="JP102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1290,8 +1290,11 @@
       <c r="JP1" s="2" t="n">
         <v>10761</v>
       </c>
-      <c r="JQ1" t="n">
+      <c r="JQ1" s="2" t="n">
         <v>10776</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10785</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2125,7 +2128,10 @@
       <c r="JP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2960,8 +2966,11 @@
       <c r="JP3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JQ3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3795,8 +3804,11 @@
       <c r="JP4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JQ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4630,8 +4642,11 @@
       <c r="JP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JQ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5465,8 +5480,11 @@
       <c r="JP6" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JQ6" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6300,8 +6318,11 @@
       <c r="JP7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JQ7" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7135,8 +7156,11 @@
       <c r="JP8" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JQ8" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7970,7 +7994,10 @@
       <c r="JP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8805,8 +8832,11 @@
       <c r="JP10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JQ10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9640,8 +9670,11 @@
       <c r="JP11" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JQ11" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10475,8 +10508,11 @@
       <c r="JP12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JQ12" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11310,8 +11346,11 @@
       <c r="JP13" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JQ13" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12145,8 +12184,11 @@
       <c r="JP14" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JQ14" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12980,8 +13022,11 @@
       <c r="JP15" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JQ15" t="n">
+      <c r="JQ15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13815,8 +13860,11 @@
       <c r="JP16" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JQ16" t="n">
+      <c r="JQ16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14650,8 +14698,11 @@
       <c r="JP17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JQ17" t="n">
+      <c r="JQ17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15485,8 +15536,11 @@
       <c r="JP18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JQ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16320,7 +16374,10 @@
       <c r="JP19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ19" t="n">
+      <c r="JQ19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR19" t="n">
         <v>16</v>
       </c>
     </row>
@@ -17155,8 +17212,11 @@
       <c r="JP20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JQ20" t="n">
+      <c r="JQ20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17990,8 +18050,11 @@
       <c r="JP21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ21" t="n">
+      <c r="JQ21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18825,8 +18888,11 @@
       <c r="JP22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JQ22" t="n">
+      <c r="JQ22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19660,7 +19726,10 @@
       <c r="JP23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ23" t="n">
+      <c r="JQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20495,8 +20564,11 @@
       <c r="JP24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JQ24" t="n">
+      <c r="JQ24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21330,8 +21402,11 @@
       <c r="JP25" s="2" t="n">
         <v>76.5</v>
       </c>
-      <c r="JQ25" t="n">
+      <c r="JQ25" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22165,8 +22240,11 @@
       <c r="JP26" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="JQ26" t="n">
+      <c r="JQ26" s="2" t="n">
         <v>17.29</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>21.84</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23000,8 +23078,11 @@
       <c r="JP27" s="2" t="n">
         <v>20.59</v>
       </c>
-      <c r="JQ27" t="n">
+      <c r="JQ27" s="2" t="n">
         <v>12.52</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>13.39</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23835,8 +23916,11 @@
       <c r="JP28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JQ28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24670,8 +24754,11 @@
       <c r="JP29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JQ29" t="n">
+      <c r="JQ29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25505,8 +25592,11 @@
       <c r="JP30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JQ30" t="n">
+      <c r="JQ30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26340,8 +26430,11 @@
       <c r="JP31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JQ31" t="n">
+      <c r="JQ31" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27175,8 +27268,11 @@
       <c r="JP32" s="2" t="n">
         <v>3.18</v>
       </c>
-      <c r="JQ32" t="n">
+      <c r="JQ32" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28010,8 +28106,11 @@
       <c r="JP33" s="2" t="n">
         <v>4.15</v>
       </c>
-      <c r="JQ33" t="n">
+      <c r="JQ33" s="2" t="n">
         <v>2.86</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28845,8 +28944,11 @@
       <c r="JP34" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="JQ34" t="n">
+      <c r="JQ34" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29680,8 +29782,11 @@
       <c r="JP35" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="JQ35" t="n">
+      <c r="JQ35" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30515,8 +30620,11 @@
       <c r="JP36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JQ36" t="n">
+      <c r="JQ36" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31350,8 +31458,11 @@
       <c r="JP37" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="JQ37" t="n">
+      <c r="JQ37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32185,8 +32296,11 @@
       <c r="JP38" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="JQ38" t="n">
+      <c r="JQ38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33020,8 +33134,11 @@
       <c r="JP39" s="2" t="n">
         <v>123.7</v>
       </c>
-      <c r="JQ39" t="n">
+      <c r="JQ39" s="2" t="n">
         <v>112.6</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>108.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33855,7 +33972,10 @@
       <c r="JP40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JQ40" t="n">
+      <c r="JQ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34690,8 +34810,11 @@
       <c r="JP41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ41" t="n">
+      <c r="JQ41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35525,7 +35648,10 @@
       <c r="JP42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ42" t="n">
+      <c r="JQ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36360,8 +36486,11 @@
       <c r="JP43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ43" t="n">
+      <c r="JQ43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37195,8 +37324,11 @@
       <c r="JP44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JQ44" t="n">
+      <c r="JQ44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38030,8 +38162,11 @@
       <c r="JP45" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="JQ45" t="n">
+      <c r="JQ45" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38865,8 +39000,11 @@
       <c r="JP46" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="JQ46" t="n">
+      <c r="JQ46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39700,8 +39838,11 @@
       <c r="JP47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="JQ47" t="n">
+      <c r="JQ47" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40535,8 +40676,11 @@
       <c r="JP48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JQ48" t="n">
+      <c r="JQ48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41370,8 +41514,11 @@
       <c r="JP49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ49" t="n">
+      <c r="JQ49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42205,8 +42352,11 @@
       <c r="JP50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ50" t="n">
+      <c r="JQ50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43040,8 +43190,11 @@
       <c r="JP51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JQ51" t="n">
+      <c r="JQ51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43875,8 +44028,11 @@
       <c r="JP52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JQ52" t="n">
+      <c r="JQ52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44710,8 +44866,11 @@
       <c r="JP53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JQ53" t="n">
+      <c r="JQ53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45545,8 +45704,11 @@
       <c r="JP54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ54" t="n">
+      <c r="JQ54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46380,8 +46542,11 @@
       <c r="JP55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ55" t="n">
+      <c r="JQ55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47215,8 +47380,11 @@
       <c r="JP56" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JQ56" t="n">
+      <c r="JQ56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48218,11 @@
       <c r="JP57" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="JQ57" t="n">
+      <c r="JQ57" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48885,8 +49056,11 @@
       <c r="JP58" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="JQ58" t="n">
+      <c r="JQ58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49720,8 +49894,11 @@
       <c r="JP59" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="JQ59" t="n">
+      <c r="JQ59" s="2" t="n">
         <v>325</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50555,8 +50732,11 @@
       <c r="JP60" s="2" t="n">
         <v>2.38</v>
       </c>
-      <c r="JQ60" t="n">
+      <c r="JQ60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51390,8 +51570,11 @@
       <c r="JP61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JQ61" t="n">
+      <c r="JQ61" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52225,8 +52408,11 @@
       <c r="JP62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JQ62" t="n">
+      <c r="JQ62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53060,8 +53246,11 @@
       <c r="JP63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JQ63" t="n">
+      <c r="JQ63" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53895,7 +54084,10 @@
       <c r="JP64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ64" t="n">
+      <c r="JQ64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR64" t="n">
         <v>16</v>
       </c>
     </row>
@@ -54730,8 +54922,11 @@
       <c r="JP65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JQ65" t="n">
+      <c r="JQ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55565,8 +55760,11 @@
       <c r="JP66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JQ66" t="n">
+      <c r="JQ66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56400,8 +56598,11 @@
       <c r="JP67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ67" t="n">
+      <c r="JQ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57235,8 +57436,11 @@
       <c r="JP68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ68" t="n">
+      <c r="JQ68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58070,8 +58274,11 @@
       <c r="JP69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ69" t="n">
+      <c r="JQ69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58905,8 +59112,11 @@
       <c r="JP70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JQ70" t="n">
+      <c r="JQ70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59740,7 +59950,10 @@
       <c r="JP71" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="JQ71" t="n">
+      <c r="JQ71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JR71" t="n">
         <v>50</v>
       </c>
     </row>
@@ -60575,8 +60788,11 @@
       <c r="JP72" s="2" t="n">
         <v>24.14</v>
       </c>
-      <c r="JQ72" t="n">
+      <c r="JQ72" s="2" t="n">
         <v>27.08</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>37.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61410,8 +61626,11 @@
       <c r="JP73" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="JQ73" t="n">
+      <c r="JQ73" s="2" t="n">
         <v>13.54</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>18.67</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62245,8 +62464,11 @@
       <c r="JP74" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JQ74" t="n">
+      <c r="JQ74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63080,8 +63302,11 @@
       <c r="JP75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JQ75" t="n">
+      <c r="JQ75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63915,7 +64140,10 @@
       <c r="JP76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JQ76" t="n">
+      <c r="JQ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JR76" t="n">
         <v>38</v>
       </c>
     </row>
@@ -64750,8 +64978,11 @@
       <c r="JP77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JQ77" t="n">
+      <c r="JQ77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65585,8 +65816,11 @@
       <c r="JP78" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="JQ78" t="n">
+      <c r="JQ78" s="2" t="n">
         <v>2.17</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66420,8 +66654,11 @@
       <c r="JP79" s="2" t="n">
         <v>4.21</v>
       </c>
-      <c r="JQ79" t="n">
+      <c r="JQ79" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67255,8 +67492,11 @@
       <c r="JP80" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="JQ80" t="n">
+      <c r="JQ80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68090,8 +68330,11 @@
       <c r="JP81" s="2" t="n">
         <v>23.7</v>
       </c>
-      <c r="JQ81" t="n">
+      <c r="JQ81" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68925,8 +69168,11 @@
       <c r="JP82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="JQ82" t="n">
+      <c r="JQ82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69760,8 +70006,11 @@
       <c r="JP83" s="2" t="n">
         <v>89.8</v>
       </c>
-      <c r="JQ83" t="n">
+      <c r="JQ83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70595,8 +70844,11 @@
       <c r="JP84" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="JQ84" t="n">
+      <c r="JQ84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71430,8 +71682,11 @@
       <c r="JP85" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="JQ85" t="n">
+      <c r="JQ85" s="2" t="n">
         <v>107.7</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72265,8 +72520,11 @@
       <c r="JP86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ86" t="n">
+      <c r="JQ86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73100,8 +73358,11 @@
       <c r="JP87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ87" t="n">
+      <c r="JQ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73935,8 +74196,11 @@
       <c r="JP88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ88" t="n">
+      <c r="JQ88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74770,8 +75034,11 @@
       <c r="JP89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ89" t="n">
+      <c r="JQ89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75605,8 +75872,11 @@
       <c r="JP90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JQ90" t="n">
+      <c r="JQ90" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76440,8 +76710,11 @@
       <c r="JP91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="JQ91" t="n">
+      <c r="JQ91" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77275,8 +77548,11 @@
       <c r="JP92" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="JQ92" t="n">
+      <c r="JQ92" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78110,8 +78386,11 @@
       <c r="JP93" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JQ93" t="n">
+      <c r="JQ93" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78945,8 +79224,11 @@
       <c r="JP94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JQ94" t="n">
+      <c r="JQ94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79780,8 +80062,11 @@
       <c r="JP95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JQ95" t="n">
+      <c r="JQ95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80615,8 +80900,11 @@
       <c r="JP96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JQ96" t="n">
+      <c r="JQ96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81450,8 +81738,11 @@
       <c r="JP97" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JQ97" t="n">
+      <c r="JQ97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82285,7 +82576,10 @@
       <c r="JP98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JQ98" t="n">
+      <c r="JQ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JR98" t="n">
         <v>38</v>
       </c>
     </row>
@@ -83120,8 +83414,11 @@
       <c r="JP99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JQ99" t="n">
+      <c r="JQ99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83955,8 +84252,11 @@
       <c r="JP100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ100" t="n">
+      <c r="JQ100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84790,8 +85090,11 @@
       <c r="JP101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ101" t="n">
+      <c r="JQ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85625,8 +85928,11 @@
       <c r="JP102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JQ102" t="n">
+      <c r="JQ102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1293,8 +1293,11 @@
       <c r="JQ1" s="2" t="n">
         <v>10776</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="2" t="n">
         <v>10785</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10791</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2131,7 +2134,10 @@
       <c r="JQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2969,8 +2975,11 @@
       <c r="JQ3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3807,7 +3816,10 @@
       <c r="JQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4645,8 +4657,11 @@
       <c r="JQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5483,8 +5498,11 @@
       <c r="JQ6" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6321,8 +6339,11 @@
       <c r="JQ7" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7159,8 +7180,11 @@
       <c r="JQ8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7997,8 +8021,11 @@
       <c r="JQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8835,8 +8862,11 @@
       <c r="JQ10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9673,8 +9703,11 @@
       <c r="JQ11" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10511,8 +10544,11 @@
       <c r="JQ12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11349,8 +11385,11 @@
       <c r="JQ13" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="2" t="n">
         <v>415</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12187,8 +12226,11 @@
       <c r="JQ14" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="2" t="n">
         <v>1.24</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13025,8 +13067,11 @@
       <c r="JQ15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13863,8 +13908,11 @@
       <c r="JQ16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14701,8 +14749,11 @@
       <c r="JQ17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15539,8 +15590,11 @@
       <c r="JQ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16377,8 +16431,11 @@
       <c r="JQ19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17215,8 +17272,11 @@
       <c r="JQ20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18053,8 +18113,11 @@
       <c r="JQ21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18891,8 +18954,11 @@
       <c r="JQ22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19729,7 +19795,10 @@
       <c r="JQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20567,8 +20636,11 @@
       <c r="JQ24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21405,8 +21477,11 @@
       <c r="JQ25" s="2" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="2" t="n">
         <v>61.3</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22243,8 +22318,11 @@
       <c r="JQ26" s="2" t="n">
         <v>17.29</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="2" t="n">
         <v>21.84</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>33.18</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23081,8 +23159,11 @@
       <c r="JQ27" s="2" t="n">
         <v>12.52</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="2" t="n">
         <v>13.39</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23919,8 +24000,11 @@
       <c r="JQ28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24757,8 +24841,11 @@
       <c r="JQ29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25595,8 +25682,11 @@
       <c r="JQ30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26433,8 +26523,11 @@
       <c r="JQ31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27271,8 +27364,11 @@
       <c r="JQ32" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="2" t="n">
         <v>1.87</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28109,8 +28205,11 @@
       <c r="JQ33" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="2" t="n">
         <v>3.05</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28947,8 +29046,11 @@
       <c r="JQ34" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="2" t="n">
         <v>51.7</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29785,8 +29887,11 @@
       <c r="JQ35" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30623,8 +30728,11 @@
       <c r="JQ36" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>185.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31461,8 +31569,11 @@
       <c r="JQ37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32299,8 +32410,11 @@
       <c r="JQ38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33137,8 +33251,11 @@
       <c r="JQ39" s="2" t="n">
         <v>112.6</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="2" t="n">
         <v>108.9</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>112.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33975,8 +34092,11 @@
       <c r="JQ40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34813,8 +34933,11 @@
       <c r="JQ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35651,8 +35774,11 @@
       <c r="JQ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36489,8 +36615,11 @@
       <c r="JQ43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37327,8 +37456,11 @@
       <c r="JQ44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38165,8 +38297,11 @@
       <c r="JQ45" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39003,8 +39138,11 @@
       <c r="JQ46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="2" t="n">
         <v>301</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39841,8 +39979,11 @@
       <c r="JQ47" s="2" t="n">
         <v>75.5</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40679,8 +40820,11 @@
       <c r="JQ48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41517,8 +41661,11 @@
       <c r="JQ49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42355,8 +42502,11 @@
       <c r="JQ50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43193,8 +43343,11 @@
       <c r="JQ51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44031,8 +44184,11 @@
       <c r="JQ52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44869,8 +45025,11 @@
       <c r="JQ53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45707,8 +45866,11 @@
       <c r="JQ54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46545,8 +46707,11 @@
       <c r="JQ55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47383,8 +47548,11 @@
       <c r="JQ56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48221,8 +48389,11 @@
       <c r="JQ57" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49059,8 +49230,11 @@
       <c r="JQ58" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49897,8 +50071,11 @@
       <c r="JQ59" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50735,8 +50912,11 @@
       <c r="JQ60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="2" t="n">
         <v>1.14</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51573,8 +51753,11 @@
       <c r="JQ61" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52411,8 +52594,11 @@
       <c r="JQ62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53249,8 +53435,11 @@
       <c r="JQ63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54087,8 +54276,11 @@
       <c r="JQ64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54925,8 +55117,11 @@
       <c r="JQ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55763,8 +55958,11 @@
       <c r="JQ66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56601,8 +56799,11 @@
       <c r="JQ67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57439,8 +57640,11 @@
       <c r="JQ68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58277,8 +58481,11 @@
       <c r="JQ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -59115,8 +59322,11 @@
       <c r="JQ70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59953,8 +60163,11 @@
       <c r="JQ71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60791,8 +61004,11 @@
       <c r="JQ72" s="2" t="n">
         <v>27.08</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="2" t="n">
         <v>37.33</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61629,8 +61845,11 @@
       <c r="JQ73" s="2" t="n">
         <v>13.54</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="2" t="n">
         <v>18.67</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62467,8 +62686,11 @@
       <c r="JQ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63305,8 +63527,11 @@
       <c r="JQ75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64143,8 +64368,11 @@
       <c r="JQ76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64981,8 +65209,11 @@
       <c r="JQ77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65819,8 +66050,11 @@
       <c r="JQ78" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66657,8 +66891,11 @@
       <c r="JQ79" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="2" t="n">
         <v>4.22</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67495,8 +67732,11 @@
       <c r="JQ80" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68333,8 +68573,11 @@
       <c r="JQ81" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="2" t="n">
         <v>23.7</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69171,8 +69414,11 @@
       <c r="JQ82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70009,8 +70255,11 @@
       <c r="JQ83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70847,8 +71096,11 @@
       <c r="JQ84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71685,8 +71937,11 @@
       <c r="JQ85" s="2" t="n">
         <v>107.7</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72523,8 +72778,11 @@
       <c r="JQ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73361,8 +73619,11 @@
       <c r="JQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74199,8 +74460,11 @@
       <c r="JQ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -75037,7 +75301,10 @@
       <c r="JQ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -75875,8 +76142,11 @@
       <c r="JQ90" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76713,8 +76983,11 @@
       <c r="JQ91" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77824,11 @@
       <c r="JQ92" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78389,8 +78665,11 @@
       <c r="JQ93" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="2" t="n">
         <v>69.90000000000001</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79227,8 +79506,11 @@
       <c r="JQ94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80065,8 +80347,11 @@
       <c r="JQ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80903,8 +81188,11 @@
       <c r="JQ96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81741,8 +82029,11 @@
       <c r="JQ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82579,8 +82870,11 @@
       <c r="JQ98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83417,8 +83711,11 @@
       <c r="JQ99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -84255,8 +84552,11 @@
       <c r="JQ100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -85093,8 +85393,11 @@
       <c r="JQ101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85931,8 +86234,11 @@
       <c r="JQ102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JS102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1296,8 +1296,17 @@
       <c r="JR1" s="2" t="n">
         <v>10785</v>
       </c>
-      <c r="JS1" t="n">
+      <c r="JS1" s="2" t="n">
         <v>10791</v>
+      </c>
+      <c r="JT1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JU1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10803</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2137,7 +2146,16 @@
       <c r="JR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2978,8 +2996,17 @@
       <c r="JR3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JS3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3819,8 +3846,17 @@
       <c r="JR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4660,7 +4696,16 @@
       <c r="JR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS5" t="n">
+      <c r="JS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5501,8 +5546,17 @@
       <c r="JR6" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JS6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JT6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JU6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6342,8 +6396,17 @@
       <c r="JR7" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JS7" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="JT7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JU7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7183,8 +7246,17 @@
       <c r="JR8" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS8" t="n">
+      <c r="JS8" s="2" t="n">
         <v>-27</v>
+      </c>
+      <c r="JT8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8024,8 +8096,17 @@
       <c r="JR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS9" t="n">
+      <c r="JS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8865,8 +8946,17 @@
       <c r="JR10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JS10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9706,8 +9796,17 @@
       <c r="JR11" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JS11" t="n">
+      <c r="JS11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JT11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JU11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10547,8 +10646,17 @@
       <c r="JR12" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JS12" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="JT12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JU12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11388,8 +11496,17 @@
       <c r="JR13" s="2" t="n">
         <v>415</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JS13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="JT13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JU13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12229,7 +12346,16 @@
       <c r="JR14" s="2" t="n">
         <v>1.24</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JS14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JT14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JU14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JV14" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -13070,8 +13196,17 @@
       <c r="JR15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="JS15" t="n">
+      <c r="JS15" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JT15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JU15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13911,8 +14046,17 @@
       <c r="JR16" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JS16" t="n">
+      <c r="JS16" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JT16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JU16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14752,7 +14896,16 @@
       <c r="JR17" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JS17" t="n">
+      <c r="JS17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JT17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JU17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JV17" t="n">
         <v>31</v>
       </c>
     </row>
@@ -15593,7 +15746,16 @@
       <c r="JR18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JS18" t="n">
+      <c r="JS18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JT18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV18" t="n">
         <v>23</v>
       </c>
     </row>
@@ -16434,8 +16596,17 @@
       <c r="JR19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JS19" t="n">
+      <c r="JS19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JT19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JU19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17275,8 +17446,17 @@
       <c r="JR20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JS20" t="n">
+      <c r="JS20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JT20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JU20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18116,8 +18296,17 @@
       <c r="JR21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JS21" t="n">
+      <c r="JS21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18957,8 +19146,17 @@
       <c r="JR22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JS22" t="n">
+      <c r="JS22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JT22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19798,8 +19996,17 @@
       <c r="JR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JS23" t="n">
+      <c r="JS23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JT23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20639,8 +20846,17 @@
       <c r="JR24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JS24" t="n">
+      <c r="JS24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JT24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JU24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21480,8 +21696,17 @@
       <c r="JR25" s="2" t="n">
         <v>61.3</v>
       </c>
-      <c r="JS25" t="n">
+      <c r="JS25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JT25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JU25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22321,8 +22546,17 @@
       <c r="JR26" s="2" t="n">
         <v>21.84</v>
       </c>
-      <c r="JS26" t="n">
+      <c r="JS26" s="2" t="n">
         <v>33.18</v>
+      </c>
+      <c r="JT26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JU26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23162,8 +23396,17 @@
       <c r="JR27" s="2" t="n">
         <v>13.39</v>
       </c>
-      <c r="JS27" t="n">
+      <c r="JS27" s="2" t="n">
         <v>16.59</v>
+      </c>
+      <c r="JT27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JU27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>18.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24003,8 +24246,17 @@
       <c r="JR28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JS28" t="n">
+      <c r="JS28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JT28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24844,8 +25096,17 @@
       <c r="JR29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JS29" t="n">
+      <c r="JS29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JT29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JU29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25685,8 +25946,17 @@
       <c r="JR30" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JS30" t="n">
+      <c r="JS30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JT30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JU30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26526,8 +26796,17 @@
       <c r="JR31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JS31" t="n">
+      <c r="JS31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JT31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JU31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27367,8 +27646,17 @@
       <c r="JR32" s="2" t="n">
         <v>1.87</v>
       </c>
-      <c r="JS32" t="n">
+      <c r="JS32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JT32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JU32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28208,8 +28496,17 @@
       <c r="JR33" s="2" t="n">
         <v>3.05</v>
       </c>
-      <c r="JS33" t="n">
+      <c r="JS33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JT33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JU33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29049,8 +29346,17 @@
       <c r="JR34" s="2" t="n">
         <v>51.7</v>
       </c>
-      <c r="JS34" t="n">
+      <c r="JS34" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="JT34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JU34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29890,8 +30196,17 @@
       <c r="JR35" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="JS35" t="n">
+      <c r="JS35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JT35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JU35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30731,8 +31046,17 @@
       <c r="JR36" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="JS36" t="n">
+      <c r="JS36" s="2" t="n">
         <v>185.9</v>
+      </c>
+      <c r="JT36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JU36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31572,8 +31896,17 @@
       <c r="JR37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="JS37" t="n">
+      <c r="JS37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="JT37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JU37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32413,8 +32746,17 @@
       <c r="JR38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JS38" t="n">
+      <c r="JS38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JT38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JU38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JV38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33254,8 +33596,17 @@
       <c r="JR39" s="2" t="n">
         <v>108.9</v>
       </c>
-      <c r="JS39" t="n">
+      <c r="JS39" s="2" t="n">
         <v>112.2</v>
+      </c>
+      <c r="JT39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JU39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34095,8 +34446,17 @@
       <c r="JR40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS40" t="n">
+      <c r="JS40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34936,8 +35296,17 @@
       <c r="JR41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS41" t="n">
+      <c r="JS41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35777,8 +36146,17 @@
       <c r="JR42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS42" t="n">
+      <c r="JS42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36618,8 +36996,17 @@
       <c r="JR43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS43" t="n">
+      <c r="JS43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JT43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37459,8 +37846,17 @@
       <c r="JR44" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="JS44" t="n">
+      <c r="JS44" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JT44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JU44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38300,8 +38696,17 @@
       <c r="JR45" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="JS45" t="n">
+      <c r="JS45" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JT45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JU45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39141,8 +39546,17 @@
       <c r="JR46" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="JS46" t="n">
+      <c r="JS46" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="JT46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JU46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39982,8 +40396,17 @@
       <c r="JR47" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="JS47" t="n">
+      <c r="JS47" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="JT47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JU47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40823,8 +41246,17 @@
       <c r="JR48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JS48" t="n">
+      <c r="JS48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JT48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JU48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41664,8 +42096,17 @@
       <c r="JR49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS49" t="n">
+      <c r="JS49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JT49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42505,8 +42946,17 @@
       <c r="JR50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JS50" t="n">
+      <c r="JS50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JT50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JU50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43346,8 +43796,17 @@
       <c r="JR51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JS51" t="n">
+      <c r="JS51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JT51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44187,8 +44646,17 @@
       <c r="JR52" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JS52" t="n">
+      <c r="JS52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JT52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JU52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45028,8 +45496,17 @@
       <c r="JR53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JS53" t="n">
+      <c r="JS53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JT53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JU53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45869,8 +46346,17 @@
       <c r="JR54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS54" t="n">
+      <c r="JS54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JT54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46710,8 +47196,17 @@
       <c r="JR55" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JS55" t="n">
+      <c r="JS55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JT55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47551,8 +48046,17 @@
       <c r="JR56" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="JS56" t="n">
+      <c r="JS56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JT56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JU56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48392,8 +48896,17 @@
       <c r="JR57" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="JS57" t="n">
+      <c r="JS57" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JT57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JU57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49233,8 +49746,17 @@
       <c r="JR58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JS58" t="n">
+      <c r="JS58" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JT58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JU58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50074,8 +50596,17 @@
       <c r="JR59" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="JS59" t="n">
+      <c r="JS59" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="JT59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JU59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50915,8 +51446,17 @@
       <c r="JR60" s="2" t="n">
         <v>1.14</v>
       </c>
-      <c r="JS60" t="n">
+      <c r="JS60" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JT60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JU60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51756,8 +52296,17 @@
       <c r="JR61" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JS61" t="n">
+      <c r="JS61" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JT61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JU61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52597,8 +53146,17 @@
       <c r="JR62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JS62" t="n">
+      <c r="JS62" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JT62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JU62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53438,8 +53996,17 @@
       <c r="JR63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JS63" t="n">
+      <c r="JS63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JT63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54279,8 +54846,17 @@
       <c r="JR64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JS64" t="n">
+      <c r="JS64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JT64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JU64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JV64" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55120,7 +55696,16 @@
       <c r="JR65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JS65" t="n">
+      <c r="JS65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JT65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV65" t="n">
         <v>23</v>
       </c>
     </row>
@@ -55961,8 +56546,17 @@
       <c r="JR66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JS66" t="n">
+      <c r="JS66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JT66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56802,8 +57396,17 @@
       <c r="JR67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS67" t="n">
+      <c r="JS67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JT67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57643,7 +58246,16 @@
       <c r="JR68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS68" t="n">
+      <c r="JS68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV68" t="n">
         <v>11</v>
       </c>
     </row>
@@ -58484,8 +59096,17 @@
       <c r="JR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JS69" t="n">
+      <c r="JS69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JT69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -59325,8 +59946,17 @@
       <c r="JR70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JS70" t="n">
+      <c r="JS70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JT70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -60166,8 +60796,17 @@
       <c r="JR71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JS71" t="n">
+      <c r="JS71" s="2" t="n">
         <v>51.7</v>
+      </c>
+      <c r="JT71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JU71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61007,8 +61646,17 @@
       <c r="JR72" s="2" t="n">
         <v>37.33</v>
       </c>
-      <c r="JS72" t="n">
+      <c r="JS72" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JT72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JU72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>31.73</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61848,8 +62496,17 @@
       <c r="JR73" s="2" t="n">
         <v>18.67</v>
       </c>
-      <c r="JS73" t="n">
+      <c r="JS73" s="2" t="n">
         <v>13.1</v>
+      </c>
+      <c r="JT73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JU73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>15.17</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62689,8 +63346,17 @@
       <c r="JR74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JS74" t="n">
+      <c r="JS74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JT74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JU74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63530,8 +64196,17 @@
       <c r="JR75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS75" t="n">
+      <c r="JS75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JT75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JU75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JV75" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64371,8 +65046,17 @@
       <c r="JR76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JS76" t="n">
+      <c r="JS76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JT76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JU76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -65212,8 +65896,17 @@
       <c r="JR77" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JS77" t="n">
+      <c r="JS77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JT77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JU77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -66053,8 +66746,17 @@
       <c r="JR78" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="JS78" t="n">
+      <c r="JS78" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="JT78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JU78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66894,8 +67596,17 @@
       <c r="JR79" s="2" t="n">
         <v>4.22</v>
       </c>
-      <c r="JS79" t="n">
+      <c r="JS79" s="2" t="n">
         <v>3.8</v>
+      </c>
+      <c r="JT79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JU79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67735,8 +68446,17 @@
       <c r="JR80" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="JS80" t="n">
+      <c r="JS80" s="2" t="n">
         <v>45.6</v>
+      </c>
+      <c r="JT80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JU80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68576,8 +69296,17 @@
       <c r="JR81" s="2" t="n">
         <v>23.7</v>
       </c>
-      <c r="JS81" t="n">
+      <c r="JS81" s="2" t="n">
         <v>26.3</v>
+      </c>
+      <c r="JT81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69417,8 +70146,17 @@
       <c r="JR82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="JS82" t="n">
+      <c r="JS82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JT82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JU82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>186.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70258,8 +70996,17 @@
       <c r="JR83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JS83" t="n">
+      <c r="JS83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="JT83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JU83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -71099,8 +71846,17 @@
       <c r="JR84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JS84" t="n">
+      <c r="JS84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JT84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JU84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71940,8 +72696,17 @@
       <c r="JR85" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="JS85" t="n">
+      <c r="JS85" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JT85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JU85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>113.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72781,7 +73546,16 @@
       <c r="JR86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JS86" t="n">
+      <c r="JS86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -73622,8 +74396,17 @@
       <c r="JR87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JS87" t="n">
+      <c r="JS87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JT87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74463,7 +75246,16 @@
       <c r="JR88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS88" t="n">
+      <c r="JS88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -75304,8 +76096,17 @@
       <c r="JR89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS89" t="n">
+      <c r="JS89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JT89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -76145,8 +76946,17 @@
       <c r="JR90" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="JS90" t="n">
+      <c r="JS90" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JT90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JU90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76986,8 +77796,17 @@
       <c r="JR91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="JS91" t="n">
+      <c r="JS91" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JT91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JU91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77827,8 +78646,17 @@
       <c r="JR92" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="JS92" t="n">
+      <c r="JS92" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="JT92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JU92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78668,8 +79496,17 @@
       <c r="JR93" s="2" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="JS93" t="n">
+      <c r="JS93" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="JT93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JU93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79509,8 +80346,17 @@
       <c r="JR94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JS94" t="n">
+      <c r="JS94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JT94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JU94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JV94" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80350,8 +81196,17 @@
       <c r="JR95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JS95" t="n">
+      <c r="JS95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JT95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -81191,8 +82046,17 @@
       <c r="JR96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JS96" t="n">
+      <c r="JS96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JT96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -82032,8 +82896,17 @@
       <c r="JR97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JS97" t="n">
+      <c r="JS97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JT97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JU97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82873,8 +83746,17 @@
       <c r="JR98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JS98" t="n">
+      <c r="JS98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JT98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JU98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83714,7 +84596,16 @@
       <c r="JR99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JS99" t="n">
+      <c r="JS99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JT99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JU99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JV99" t="n">
         <v>58</v>
       </c>
     </row>
@@ -84555,8 +85446,17 @@
       <c r="JR100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JS100" t="n">
+      <c r="JS100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JT100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -85396,8 +86296,17 @@
       <c r="JR101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JS101" t="n">
+      <c r="JS101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JT101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -86237,8 +87146,17 @@
       <c r="JR102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JS102" t="n">
+      <c r="JS102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JT102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JU102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV102"/>
+  <dimension ref="A1:KC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1305,7 +1305,28 @@
       <c r="JU1" s="2" t="n">
         <v>10803</v>
       </c>
-      <c r="JV1" t="n">
+      <c r="JV1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JW1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JX1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JY1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JZ1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KA1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KB1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KC1" t="n">
         <v>10803</v>
       </c>
     </row>
@@ -2155,7 +2176,28 @@
       <c r="JU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3005,7 +3047,28 @@
       <c r="JU3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JV3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3855,7 +3918,28 @@
       <c r="JU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4705,7 +4789,28 @@
       <c r="JU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5555,7 +5660,28 @@
       <c r="JU6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JV6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JW6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JX6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JY6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JZ6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KA6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KB6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KC6" t="n">
         <v>96</v>
       </c>
     </row>
@@ -6405,7 +6531,28 @@
       <c r="JU7" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JV7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JW7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JX7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JY7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JZ7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KA7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KB7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KC7" t="n">
         <v>78</v>
       </c>
     </row>
@@ -7255,7 +7402,28 @@
       <c r="JU8" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JV8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JY8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC8" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8105,7 +8273,28 @@
       <c r="JU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8955,7 +9144,28 @@
       <c r="JU10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JV10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JY10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC10" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9805,7 +10015,28 @@
       <c r="JU11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JV11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JW11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JX11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JY11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JZ11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KA11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KB11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KC11" t="n">
         <v>215</v>
       </c>
     </row>
@@ -10655,7 +10886,28 @@
       <c r="JU12" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JV12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JW12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JX12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JY12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JZ12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KA12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KB12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KC12" t="n">
         <v>166</v>
       </c>
     </row>
@@ -11505,7 +11757,28 @@
       <c r="JU13" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JV13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JW13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JX13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JY13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JZ13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KA13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KB13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KC13" t="n">
         <v>381</v>
       </c>
     </row>
@@ -12355,7 +12628,28 @@
       <c r="JU14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JV14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JW14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JX14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JY14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JZ14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KA14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KB14" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KC14" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -13205,7 +13499,28 @@
       <c r="JU15" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JV15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JW15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JX15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JY15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JZ15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KA15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KB15" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KC15" t="n">
         <v>103</v>
       </c>
     </row>
@@ -14055,7 +14370,28 @@
       <c r="JU16" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JV16" t="n">
+      <c r="JV16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC16" t="n">
         <v>41</v>
       </c>
     </row>
@@ -14905,7 +15241,28 @@
       <c r="JU17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JV17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JW17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JX17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JY17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JZ17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KA17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KB17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KC17" t="n">
         <v>31</v>
       </c>
     </row>
@@ -15755,7 +16112,28 @@
       <c r="JU18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JV18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JW18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JX18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JY18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC18" t="n">
         <v>23</v>
       </c>
     </row>
@@ -16605,7 +16983,28 @@
       <c r="JU19" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JV19" t="n">
+      <c r="JV19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JX19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JY19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC19" t="n">
         <v>27</v>
       </c>
     </row>
@@ -17455,7 +17854,28 @@
       <c r="JU20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JV20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JX20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC20" t="n">
         <v>15</v>
       </c>
     </row>
@@ -18305,7 +18725,28 @@
       <c r="JU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV21" t="n">
+      <c r="JV21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19155,7 +19596,28 @@
       <c r="JU22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JV22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -20005,7 +20467,28 @@
       <c r="JU23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JV23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20855,7 +21338,28 @@
       <c r="JU24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JV24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JW24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JX24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JY24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JZ24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KA24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KB24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KC24" t="n">
         <v>21</v>
       </c>
     </row>
@@ -21705,7 +22209,28 @@
       <c r="JU25" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JV25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JW25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JX25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JY25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JZ25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KA25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KB25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KC25" t="n">
         <v>71.40000000000001</v>
       </c>
     </row>
@@ -22555,7 +23080,28 @@
       <c r="JU26" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JV26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JW26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JX26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JY26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JZ26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KA26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KB26" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KC26" t="n">
         <v>25.4</v>
       </c>
     </row>
@@ -23405,7 +23951,28 @@
       <c r="JU27" s="2" t="n">
         <v>18.14</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JV27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JW27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JX27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JY27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JZ27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KA27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KB27" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KC27" t="n">
         <v>18.14</v>
       </c>
     </row>
@@ -24255,7 +24822,28 @@
       <c r="JU28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JV28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JW28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JZ28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KA28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KB28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KC28" t="n">
         <v>35</v>
       </c>
     </row>
@@ -25105,7 +25693,28 @@
       <c r="JU29" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JV29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JW29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JX29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JY29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB29" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC29" t="n">
         <v>75</v>
       </c>
     </row>
@@ -25955,7 +26564,28 @@
       <c r="JU30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JV30" t="n">
+      <c r="JV30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JW30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JX30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JY30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC30" t="n">
         <v>48</v>
       </c>
     </row>
@@ -26805,7 +27435,28 @@
       <c r="JU31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JV31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JW31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JX31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JY31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JZ31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KA31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KB31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KC31" t="n">
         <v>53</v>
       </c>
     </row>
@@ -27655,7 +28306,28 @@
       <c r="JU32" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JV32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JW32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JX32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JY32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JZ32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KA32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KB32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KC32" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -28505,7 +29177,28 @@
       <c r="JU33" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JV33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JW33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JX33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JY33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JZ33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KA33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KB33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KC33" t="n">
         <v>3.53</v>
       </c>
     </row>
@@ -29355,7 +30048,28 @@
       <c r="JU34" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="JV34" t="n">
+      <c r="JV34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JW34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JX34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JY34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JZ34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KA34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KB34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KC34" t="n">
         <v>39.6</v>
       </c>
     </row>
@@ -30205,7 +30919,28 @@
       <c r="JU35" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JV35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JW35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JX35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JY35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JZ35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KA35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KB35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KC35" t="n">
         <v>28.3</v>
       </c>
     </row>
@@ -31055,7 +31790,28 @@
       <c r="JU36" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="JV36" t="n">
+      <c r="JV36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JW36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JX36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JY36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JZ36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KA36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KB36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KC36" t="n">
         <v>186.8</v>
       </c>
     </row>
@@ -31905,7 +32661,28 @@
       <c r="JU37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="JV37" t="n">
+      <c r="JV37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JW37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JX37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JY37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JZ37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KA37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KB37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KC37" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -32755,7 +33532,28 @@
       <c r="JU38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JV38" t="n">
+      <c r="JV38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JW38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JX38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JY38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JZ38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KA38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KB38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KC38" t="n">
         <v>25.58</v>
       </c>
     </row>
@@ -33605,7 +34403,28 @@
       <c r="JU39" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="JV39" t="n">
+      <c r="JV39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JW39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JX39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JY39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JZ39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KA39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KB39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KC39" t="n">
         <v>106</v>
       </c>
     </row>
@@ -34455,7 +35274,28 @@
       <c r="JU40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV40" t="n">
+      <c r="JV40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35305,7 +36145,28 @@
       <c r="JU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV41" t="n">
+      <c r="JV41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36155,7 +37016,28 @@
       <c r="JU42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV42" t="n">
+      <c r="JV42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37005,7 +37887,28 @@
       <c r="JU43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV43" t="n">
+      <c r="JV43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37855,7 +38758,28 @@
       <c r="JU44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JV44" t="n">
+      <c r="JV44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JW44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JX44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JY44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JZ44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KA44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KB44" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KC44" t="n">
         <v>135</v>
       </c>
     </row>
@@ -38705,7 +39629,28 @@
       <c r="JU45" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="JV45" t="n">
+      <c r="JV45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JW45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JX45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JY45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JZ45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KA45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KB45" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KC45" t="n">
         <v>249</v>
       </c>
     </row>
@@ -39555,7 +40500,28 @@
       <c r="JU46" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="JV46" t="n">
+      <c r="JV46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JW46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JX46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JY46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JZ46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KA46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KB46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KC46" t="n">
         <v>301</v>
       </c>
     </row>
@@ -40405,7 +41371,28 @@
       <c r="JU47" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JV47" t="n">
+      <c r="JV47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JW47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JX47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JY47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JZ47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KA47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KB47" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC47" t="n">
         <v>79</v>
       </c>
     </row>
@@ -41255,7 +42242,28 @@
       <c r="JU48" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JV48" t="n">
+      <c r="JV48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JW48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JX48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JY48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB48" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC48" t="n">
         <v>75</v>
       </c>
     </row>
@@ -42105,7 +43113,28 @@
       <c r="JU49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JV49" t="n">
+      <c r="JV49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JY49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB49" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC49" t="n">
         <v>18</v>
       </c>
     </row>
@@ -42955,7 +43984,28 @@
       <c r="JU50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JV50" t="n">
+      <c r="JV50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JY50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KA50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KB50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KC50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -43805,7 +44855,28 @@
       <c r="JU51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JV51" t="n">
+      <c r="JV51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JW51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JX51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JY51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JZ51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KA51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KB51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KC51" t="n">
         <v>35</v>
       </c>
     </row>
@@ -44655,7 +45726,28 @@
       <c r="JU52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JV52" t="n">
+      <c r="JV52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JW52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JX52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JY52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC52" t="n">
         <v>48</v>
       </c>
     </row>
@@ -45505,7 +46597,28 @@
       <c r="JU53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JV53" t="n">
+      <c r="JV53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC53" t="n">
         <v>37</v>
       </c>
     </row>
@@ -46355,7 +47468,28 @@
       <c r="JU54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV54" t="n">
+      <c r="JV54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -47205,7 +48339,28 @@
       <c r="JU55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV55" t="n">
+      <c r="JV55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -48055,7 +49210,28 @@
       <c r="JU56" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="JV56" t="n">
+      <c r="JV56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JW56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JX56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JY56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JZ56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KA56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KB56" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KC56" t="n">
         <v>53.3</v>
       </c>
     </row>
@@ -48905,7 +50081,28 @@
       <c r="JU57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JV57" t="n">
+      <c r="JV57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JW57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JX57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JY57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JZ57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KA57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KB57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KC57" t="n">
         <v>213</v>
       </c>
     </row>
@@ -49755,7 +50952,28 @@
       <c r="JU58" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JV58" t="n">
+      <c r="JV58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JW58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JX58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JY58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JZ58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KA58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KB58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KC58" t="n">
         <v>136</v>
       </c>
     </row>
@@ -50605,7 +51823,28 @@
       <c r="JU59" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="JV59" t="n">
+      <c r="JV59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JW59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JX59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JY59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JZ59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KA59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KB59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KC59" t="n">
         <v>349</v>
       </c>
     </row>
@@ -51455,7 +52694,28 @@
       <c r="JU60" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="JV60" t="n">
+      <c r="JV60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JW60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JX60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JY60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JZ60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KA60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KB60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KC60" t="n">
         <v>1.57</v>
       </c>
     </row>
@@ -52305,7 +53565,28 @@
       <c r="JU61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JV61" t="n">
+      <c r="JV61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JW61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JX61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JY61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JZ61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KA61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KB61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KC61" t="n">
         <v>81</v>
       </c>
     </row>
@@ -53155,7 +54436,28 @@
       <c r="JU62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JV62" t="n">
+      <c r="JV62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JW62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JX62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JY62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC62" t="n">
         <v>51</v>
       </c>
     </row>
@@ -54005,7 +55307,28 @@
       <c r="JU63" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JV63" t="n">
+      <c r="JV63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JW63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JX63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JY63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB63" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC63" t="n">
         <v>23</v>
       </c>
     </row>
@@ -54855,7 +56178,28 @@
       <c r="JU64" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JV64" t="n">
+      <c r="JV64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JX64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JY64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB64" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC64" t="n">
         <v>27</v>
       </c>
     </row>
@@ -55705,7 +57049,28 @@
       <c r="JU65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JV65" t="n">
+      <c r="JV65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JW65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JX65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JY65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC65" t="n">
         <v>23</v>
       </c>
     </row>
@@ -56555,7 +57920,28 @@
       <c r="JU66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JV66" t="n">
+      <c r="JV66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -57405,7 +58791,28 @@
       <c r="JU67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV67" t="n">
+      <c r="JV67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -58255,7 +59662,28 @@
       <c r="JU68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JV68" t="n">
+      <c r="JV68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC68" t="n">
         <v>11</v>
       </c>
     </row>
@@ -59105,7 +60533,28 @@
       <c r="JU69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV69" t="n">
+      <c r="JV69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59955,7 +61404,28 @@
       <c r="JU70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JV70" t="n">
+      <c r="JV70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JW70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JX70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JY70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC70" t="n">
         <v>23</v>
       </c>
     </row>
@@ -60805,7 +62275,28 @@
       <c r="JU71" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="JV71" t="n">
+      <c r="JV71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JW71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JX71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JY71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JZ71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KA71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KB71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KC71" t="n">
         <v>47.8</v>
       </c>
     </row>
@@ -61655,7 +63146,28 @@
       <c r="JU72" s="2" t="n">
         <v>31.73</v>
       </c>
-      <c r="JV72" t="n">
+      <c r="JV72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JW72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JX72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JY72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JZ72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KA72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KB72" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KC72" t="n">
         <v>31.73</v>
       </c>
     </row>
@@ -62505,7 +64017,28 @@
       <c r="JU73" s="2" t="n">
         <v>15.17</v>
       </c>
-      <c r="JV73" t="n">
+      <c r="JV73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JW73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JX73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JY73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JZ73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KA73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KB73" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KC73" t="n">
         <v>15.17</v>
       </c>
     </row>
@@ -63355,7 +64888,28 @@
       <c r="JU74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JV74" t="n">
+      <c r="JV74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JW74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JX74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JY74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JZ74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KA74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KB74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KC74" t="n">
         <v>29</v>
       </c>
     </row>
@@ -64205,7 +65759,28 @@
       <c r="JU75" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JV75" t="n">
+      <c r="JV75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JW75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JX75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JY75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB75" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC75" t="n">
         <v>76</v>
       </c>
     </row>
@@ -65055,7 +66630,28 @@
       <c r="JU76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JV76" t="n">
+      <c r="JV76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC76" t="n">
         <v>37</v>
       </c>
     </row>
@@ -65905,7 +67501,28 @@
       <c r="JU77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JV77" t="n">
+      <c r="JV77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JW77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JX77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JY77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JZ77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KA77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KB77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KC77" t="n">
         <v>61</v>
       </c>
     </row>
@@ -66755,7 +68372,28 @@
       <c r="JU78" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="JV78" t="n">
+      <c r="JV78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JW78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JX78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JY78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JZ78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KA78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KB78" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KC78" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -67605,7 +69243,28 @@
       <c r="JU79" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="JV79" t="n">
+      <c r="JV79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JW79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JX79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JY79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JZ79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KA79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KB79" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KC79" t="n">
         <v>5.55</v>
       </c>
     </row>
@@ -68455,7 +70114,28 @@
       <c r="JU80" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="JV80" t="n">
+      <c r="JV80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JW80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JX80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JY80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JZ80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KA80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KB80" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KC80" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -69305,7 +70985,28 @@
       <c r="JU81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JV81" t="n">
+      <c r="JV81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JY81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC81" t="n">
         <v>18</v>
       </c>
     </row>
@@ -70155,7 +71856,28 @@
       <c r="JU82" s="2" t="n">
         <v>186.1</v>
       </c>
-      <c r="JV82" t="n">
+      <c r="JV82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JW82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JX82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JY82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JZ82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KA82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KB82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KC82" t="n">
         <v>186.1</v>
       </c>
     </row>
@@ -71005,7 +72727,28 @@
       <c r="JU83" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="JV83" t="n">
+      <c r="JV83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JW83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JX83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JY83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JZ83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KA83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KB83" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KC83" t="n">
         <v>85.2</v>
       </c>
     </row>
@@ -71855,7 +73598,28 @@
       <c r="JU84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JV84" t="n">
+      <c r="JV84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JW84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JX84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JY84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JZ84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KA84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KB84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KC84" t="n">
         <v>26.33</v>
       </c>
     </row>
@@ -72705,7 +74469,28 @@
       <c r="JU85" s="2" t="n">
         <v>113.5</v>
       </c>
-      <c r="JV85" t="n">
+      <c r="JV85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JW85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JX85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JY85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JZ85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KA85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KB85" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KC85" t="n">
         <v>113.5</v>
       </c>
     </row>
@@ -73555,7 +75340,28 @@
       <c r="JU86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV86" t="n">
+      <c r="JV86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -74405,7 +76211,28 @@
       <c r="JU87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV87" t="n">
+      <c r="JV87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -75255,7 +77082,28 @@
       <c r="JU88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV88" t="n">
+      <c r="JV88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -76105,7 +77953,28 @@
       <c r="JU89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV89" t="n">
+      <c r="JV89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -76955,7 +78824,28 @@
       <c r="JU90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JV90" t="n">
+      <c r="JV90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JW90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JX90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JY90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JZ90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KA90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KB90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KC90" t="n">
         <v>144</v>
       </c>
     </row>
@@ -77805,7 +79695,28 @@
       <c r="JU91" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="JV91" t="n">
+      <c r="JV91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JW91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JX91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JY91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JZ91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KA91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KB91" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KC91" t="n">
         <v>204</v>
       </c>
     </row>
@@ -78655,7 +80566,28 @@
       <c r="JU92" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="JV92" t="n">
+      <c r="JV92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JW92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JX92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JY92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JZ92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KA92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KB92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KC92" t="n">
         <v>238</v>
       </c>
     </row>
@@ -79505,7 +81437,28 @@
       <c r="JU93" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="JV93" t="n">
+      <c r="JV93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JW93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JX93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JY93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JZ93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KA93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KB93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KC93" t="n">
         <v>68.2</v>
       </c>
     </row>
@@ -80355,7 +82308,28 @@
       <c r="JU94" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JV94" t="n">
+      <c r="JV94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JW94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JX94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JY94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB94" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC94" t="n">
         <v>76</v>
       </c>
     </row>
@@ -81205,7 +83179,28 @@
       <c r="JU95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV95" t="n">
+      <c r="JV95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -82055,7 +84050,28 @@
       <c r="JU96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JV96" t="n">
+      <c r="JV96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC96" t="n">
         <v>11</v>
       </c>
     </row>
@@ -82905,7 +84921,28 @@
       <c r="JU97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JV97" t="n">
+      <c r="JV97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JW97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JX97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JY97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JZ97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KA97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KB97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KC97" t="n">
         <v>29</v>
       </c>
     </row>
@@ -83755,7 +85792,28 @@
       <c r="JU98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JV98" t="n">
+      <c r="JV98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC98" t="n">
         <v>37</v>
       </c>
     </row>
@@ -84605,7 +86663,28 @@
       <c r="JU99" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JV99" t="n">
+      <c r="JV99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JW99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JX99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JY99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JZ99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KA99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KB99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KC99" t="n">
         <v>58</v>
       </c>
     </row>
@@ -85455,7 +87534,28 @@
       <c r="JU100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV100" t="n">
+      <c r="JV100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -86305,7 +88405,28 @@
       <c r="JU101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV101" t="n">
+      <c r="JV101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -87155,7 +89276,28 @@
       <c r="JU102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JV102" t="n">
+      <c r="JV102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JW102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JX102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JY102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JZ102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KA102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KB102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KC102" t="n">
         <v>63.6</v>
       </c>
     </row>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1351,8 +1351,11 @@
       <c r="KJ1" s="2" t="n">
         <v>10843</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="2" t="n">
         <v>10850</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10864</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2246,7 +2249,10 @@
       <c r="KJ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3141,8 +3147,11 @@
       <c r="KJ3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4036,7 +4045,10 @@
       <c r="KJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4931,7 +4943,10 @@
       <c r="KJ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5826,8 +5841,11 @@
       <c r="KJ6" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6721,8 +6739,11 @@
       <c r="KJ7" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7616,8 +7637,11 @@
       <c r="KJ8" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8511,7 +8535,10 @@
       <c r="KJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9406,8 +9433,11 @@
       <c r="KJ10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10301,7 +10331,10 @@
       <c r="KJ11" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KL11" t="n">
         <v>215</v>
       </c>
     </row>
@@ -11196,8 +11229,11 @@
       <c r="KJ12" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12091,8 +12127,11 @@
       <c r="KJ13" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="2" t="n">
         <v>378</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12986,8 +13025,11 @@
       <c r="KJ14" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13881,8 +13923,11 @@
       <c r="KJ15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14776,8 +14821,11 @@
       <c r="KJ16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15671,8 +15719,11 @@
       <c r="KJ17" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16566,8 +16617,11 @@
       <c r="KJ18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17461,8 +17515,11 @@
       <c r="KJ19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18356,7 +18413,10 @@
       <c r="KJ20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19251,7 +19311,10 @@
       <c r="KJ21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -20146,8 +20209,11 @@
       <c r="KJ22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21041,8 +21107,11 @@
       <c r="KJ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21936,8 +22005,11 @@
       <c r="KJ24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22831,8 +22903,11 @@
       <c r="KJ25" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23726,8 +23801,11 @@
       <c r="KJ26" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="2" t="n">
         <v>47.25</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>44.12</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24621,8 +24699,11 @@
       <c r="KJ27" s="2" t="n">
         <v>14.68</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>13.58</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25516,8 +25597,11 @@
       <c r="KJ28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26411,8 +26495,11 @@
       <c r="KJ29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27306,8 +27393,11 @@
       <c r="KJ30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28201,7 +28291,10 @@
       <c r="KJ31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KL31" t="n">
         <v>59</v>
       </c>
     </row>
@@ -29096,8 +29189,11 @@
       <c r="KJ32" s="2" t="n">
         <v>2.64</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="2" t="n">
         <v>2.81</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29991,7 +30087,10 @@
       <c r="KJ33" s="2" t="n">
         <v>5.8</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="2" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="KL33" t="n">
         <v>7.38</v>
       </c>
     </row>
@@ -30886,8 +30985,11 @@
       <c r="KJ34" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31781,7 +31883,10 @@
       <c r="KJ35" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="KL35" t="n">
         <v>13.6</v>
       </c>
     </row>
@@ -32676,8 +32781,11 @@
       <c r="KJ36" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="KL36" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33571,8 +33679,11 @@
       <c r="KJ37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="KL37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34466,8 +34577,11 @@
       <c r="KJ38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KL38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35361,8 +35475,11 @@
       <c r="KJ39" s="2" t="n">
         <v>118.9</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="2" t="n">
         <v>116.7</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>120.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36256,8 +36373,11 @@
       <c r="KJ40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37151,8 +37271,11 @@
       <c r="KJ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38046,8 +38169,11 @@
       <c r="KJ42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38941,8 +39067,11 @@
       <c r="KJ43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39836,8 +39965,11 @@
       <c r="KJ44" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40731,8 +40863,11 @@
       <c r="KJ45" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41626,8 +41761,11 @@
       <c r="KJ46" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="2" t="n">
         <v>263</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42521,8 +42659,11 @@
       <c r="KJ47" s="2" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="2" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43416,8 +43557,11 @@
       <c r="KJ48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44311,8 +44455,11 @@
       <c r="KJ49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KL49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45206,7 +45353,10 @@
       <c r="KJ50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -46101,8 +46251,11 @@
       <c r="KJ51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46996,8 +47149,11 @@
       <c r="KJ52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47891,8 +48047,11 @@
       <c r="KJ53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48786,8 +48945,11 @@
       <c r="KJ54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49681,7 +49843,10 @@
       <c r="KJ55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -50576,7 +50741,10 @@
       <c r="KJ56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KL56" t="n">
         <v>75</v>
       </c>
     </row>
@@ -51471,8 +51639,11 @@
       <c r="KJ57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52366,8 +52537,11 @@
       <c r="KJ58" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53261,8 +53435,11 @@
       <c r="KJ59" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54156,8 +54333,11 @@
       <c r="KJ60" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55051,8 +55231,11 @@
       <c r="KJ61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55946,8 +56129,11 @@
       <c r="KJ62" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56841,8 +57027,11 @@
       <c r="KJ63" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57736,8 +57925,11 @@
       <c r="KJ64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58631,8 +58823,11 @@
       <c r="KJ65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59526,8 +59721,11 @@
       <c r="KJ66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60421,8 +60619,11 @@
       <c r="KJ67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61316,7 +61517,10 @@
       <c r="KJ68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL68" t="n">
         <v>6</v>
       </c>
     </row>
@@ -62211,7 +62415,10 @@
       <c r="KJ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -63106,8 +63313,11 @@
       <c r="KJ70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64001,8 +64211,11 @@
       <c r="KJ71" s="2" t="n">
         <v>63.2</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64896,8 +65109,11 @@
       <c r="KJ72" s="2" t="n">
         <v>32.08</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="2" t="n">
         <v>54.67</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>40.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65791,8 +66007,11 @@
       <c r="KJ73" s="2" t="n">
         <v>20.26</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="2" t="n">
         <v>23.43</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>21.47</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66686,7 +66905,10 @@
       <c r="KJ74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KL74" t="n">
         <v>29</v>
       </c>
     </row>
@@ -67581,8 +67803,11 @@
       <c r="KJ75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68476,8 +68701,11 @@
       <c r="KJ76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69371,8 +69599,11 @@
       <c r="KJ77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70266,8 +70497,11 @@
       <c r="KJ78" s="2" t="n">
         <v>2.74</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="2" t="n">
         <v>2.79</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71161,8 +71395,11 @@
       <c r="KJ79" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72056,8 +72293,11 @@
       <c r="KJ80" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72951,8 +73191,11 @@
       <c r="KJ81" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73846,8 +74089,11 @@
       <c r="KJ82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KL82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74741,8 +74987,11 @@
       <c r="KJ83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75636,8 +75885,11 @@
       <c r="KJ84" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76531,8 +76783,11 @@
       <c r="KJ85" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="2" t="n">
         <v>83.09999999999999</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>103.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77426,7 +77681,10 @@
       <c r="KJ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -78321,8 +78579,11 @@
       <c r="KJ87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79216,8 +79477,11 @@
       <c r="KJ88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80111,8 +80375,11 @@
       <c r="KJ89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81006,8 +81273,11 @@
       <c r="KJ90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81901,8 +82171,11 @@
       <c r="KJ91" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82796,8 +83069,11 @@
       <c r="KJ92" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83691,8 +83967,11 @@
       <c r="KJ93" s="2" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KL93" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84586,8 +84865,11 @@
       <c r="KJ94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85481,8 +85763,11 @@
       <c r="KJ95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86376,8 +86661,11 @@
       <c r="KJ96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87271,7 +87559,10 @@
       <c r="KJ97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KL97" t="n">
         <v>29</v>
       </c>
     </row>
@@ -88166,8 +88457,11 @@
       <c r="KJ98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89061,8 +89355,11 @@
       <c r="KJ99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89956,8 +90253,11 @@
       <c r="KJ100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90851,8 +91151,11 @@
       <c r="KJ101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91746,8 +92049,11 @@
       <c r="KJ102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1366,8 +1366,11 @@
       <c r="KO1" s="2" t="n">
         <v>10891</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10899</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>10908</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2276,7 +2279,10 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3186,8 +3192,11 @@
       <c r="KO3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4096,7 +4105,10 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5006,7 +5018,10 @@
       <c r="KO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5916,8 +5931,11 @@
       <c r="KO6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6826,8 +6844,11 @@
       <c r="KO7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7736,8 +7757,11 @@
       <c r="KO8" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8646,7 +8670,10 @@
       <c r="KO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9556,8 +9583,11 @@
       <c r="KO10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10466,8 +10496,11 @@
       <c r="KO11" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11376,8 +11409,11 @@
       <c r="KO12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12286,8 +12322,11 @@
       <c r="KO13" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13196,8 +13235,11 @@
       <c r="KO14" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14106,8 +14148,11 @@
       <c r="KO15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15016,8 +15061,11 @@
       <c r="KO16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15926,8 +15974,11 @@
       <c r="KO17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16836,8 +16887,11 @@
       <c r="KO18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17746,8 +17800,11 @@
       <c r="KO19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18656,8 +18713,11 @@
       <c r="KO20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19566,8 +19626,11 @@
       <c r="KO21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20476,8 +20539,11 @@
       <c r="KO22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21386,8 +21452,11 @@
       <c r="KO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22296,8 +22365,11 @@
       <c r="KO24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23206,8 +23278,11 @@
       <c r="KO25" s="2" t="n">
         <v>63.2</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24116,8 +24191,11 @@
       <c r="KO26" s="2" t="n">
         <v>32.17</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>22.69</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25026,8 +25104,11 @@
       <c r="KO27" s="2" t="n">
         <v>20.32</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>14.52</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25936,8 +26017,11 @@
       <c r="KO28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26846,8 +26930,11 @@
       <c r="KO29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27756,8 +27843,11 @@
       <c r="KO30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28666,8 +28756,11 @@
       <c r="KO31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29576,8 +29669,11 @@
       <c r="KO32" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30486,8 +30582,11 @@
       <c r="KO33" s="2" t="n">
         <v>3.83</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31396,8 +31495,11 @@
       <c r="KO34" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32306,8 +32408,11 @@
       <c r="KO35" s="2" t="n">
         <v>26.1</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="KQ35" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33216,8 +33321,11 @@
       <c r="KO36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KQ36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34126,8 +34234,11 @@
       <c r="KO37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KQ37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35036,8 +35147,11 @@
       <c r="KO38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KQ38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35946,8 +36060,11 @@
       <c r="KO39" s="2" t="n">
         <v>120.9</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KQ39" t="n">
+        <v>116.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36856,8 +36973,11 @@
       <c r="KO40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37766,8 +37886,11 @@
       <c r="KO41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38676,8 +38799,11 @@
       <c r="KO42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39586,8 +39712,11 @@
       <c r="KO43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ43" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40496,8 +40625,11 @@
       <c r="KO44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41406,8 +41538,11 @@
       <c r="KO45" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42316,8 +42451,11 @@
       <c r="KO46" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KQ46" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43226,8 +43364,11 @@
       <c r="KO47" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>71.3</v>
+      </c>
+      <c r="KQ47" t="n">
+        <v>65.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44136,8 +44277,11 @@
       <c r="KO48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45046,7 +45190,10 @@
       <c r="KO49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -45956,8 +46103,11 @@
       <c r="KO50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46866,8 +47016,11 @@
       <c r="KO51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47776,8 +47929,11 @@
       <c r="KO52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48686,8 +48842,11 @@
       <c r="KO53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49596,8 +49755,11 @@
       <c r="KO54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50506,8 +50668,11 @@
       <c r="KO55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51416,8 +51581,11 @@
       <c r="KO56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>43.8</v>
+      </c>
+      <c r="KQ56" t="n">
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52326,8 +52494,11 @@
       <c r="KO57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KQ57" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53236,8 +53407,11 @@
       <c r="KO58" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KQ58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54146,8 +54320,11 @@
       <c r="KO59" s="2" t="n">
         <v>412</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>335</v>
+      </c>
+      <c r="KQ59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55056,8 +55233,11 @@
       <c r="KO60" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="KQ60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55966,8 +56146,11 @@
       <c r="KO61" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KQ61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56876,8 +57059,11 @@
       <c r="KO62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KQ62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57786,8 +57972,11 @@
       <c r="KO63" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KQ63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58696,8 +58885,11 @@
       <c r="KO64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59606,8 +59798,11 @@
       <c r="KO65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60516,8 +60711,11 @@
       <c r="KO66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61426,8 +61624,11 @@
       <c r="KO67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62336,8 +62537,11 @@
       <c r="KO68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63246,7 +63450,10 @@
       <c r="KO69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -64156,8 +64363,11 @@
       <c r="KO70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KQ70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65066,8 +65276,11 @@
       <c r="KO71" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KQ71" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65976,8 +66189,11 @@
       <c r="KO72" s="2" t="n">
         <v>51.5</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>20.94</v>
+      </c>
+      <c r="KQ72" t="n">
+        <v>26.08</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66886,8 +67102,11 @@
       <c r="KO73" s="2" t="n">
         <v>22.89</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>13.96</v>
+      </c>
+      <c r="KQ73" t="n">
+        <v>12.11</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67796,7 +68015,10 @@
       <c r="KO74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KQ74" t="n">
         <v>32</v>
       </c>
     </row>
@@ -68706,8 +68928,11 @@
       <c r="KO75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KQ75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69616,8 +69841,11 @@
       <c r="KO76" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70526,8 +70754,11 @@
       <c r="KO77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KQ77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71436,8 +71667,11 @@
       <c r="KO78" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="KQ78" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72346,8 +72580,11 @@
       <c r="KO79" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KQ79" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73256,8 +73493,11 @@
       <c r="KO80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>41.1</v>
+      </c>
+      <c r="KQ80" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74166,8 +74406,11 @@
       <c r="KO81" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KQ81" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75076,8 +75319,11 @@
       <c r="KO82" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KQ82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75986,8 +76232,11 @@
       <c r="KO83" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KQ83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76896,8 +77145,11 @@
       <c r="KO84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KQ84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77806,8 +78058,11 @@
       <c r="KO85" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KQ85" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78716,8 +78971,11 @@
       <c r="KO86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79626,8 +79884,11 @@
       <c r="KO87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80536,8 +80797,11 @@
       <c r="KO88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81446,8 +81710,11 @@
       <c r="KO89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82356,8 +82623,11 @@
       <c r="KO90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KQ90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83266,8 +83536,11 @@
       <c r="KO91" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="KQ91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84176,8 +84449,11 @@
       <c r="KO92" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="KQ92" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85086,8 +85362,11 @@
       <c r="KO93" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="KQ93" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86275,11 @@
       <c r="KO94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KQ94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86906,8 +87188,11 @@
       <c r="KO95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87816,8 +88101,11 @@
       <c r="KO96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KQ96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88726,7 +89014,10 @@
       <c r="KO97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KQ97" t="n">
         <v>32</v>
       </c>
     </row>
@@ -89636,8 +89927,11 @@
       <c r="KO98" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90546,8 +90840,11 @@
       <c r="KO99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KQ99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91456,8 +91753,11 @@
       <c r="KO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92366,8 +92666,11 @@
       <c r="KO101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93276,8 +93579,11 @@
       <c r="KO102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="KQ102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KQ102"/>
+  <dimension ref="A1:KR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1369,8 +1369,11 @@
       <c r="KP1" s="2" t="n">
         <v>10899</v>
       </c>
-      <c r="KQ1" t="n">
+      <c r="KQ1" s="2" t="n">
         <v>10908</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>10918</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2282,7 +2285,10 @@
       <c r="KP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3195,8 +3201,11 @@
       <c r="KP3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ3" t="n">
+      <c r="KQ3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4108,8 +4117,11 @@
       <c r="KP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KQ4" t="n">
+      <c r="KQ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5021,8 +5033,11 @@
       <c r="KP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KQ5" t="n">
+      <c r="KQ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5934,8 +5949,11 @@
       <c r="KP6" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KQ6" t="n">
+      <c r="KQ6" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6847,8 +6865,11 @@
       <c r="KP7" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KQ7" t="n">
+      <c r="KQ7" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7760,8 +7781,11 @@
       <c r="KP8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ8" t="n">
+      <c r="KQ8" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8673,7 +8697,10 @@
       <c r="KP9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ9" t="n">
+      <c r="KQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9586,8 +9613,11 @@
       <c r="KP10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ10" t="n">
+      <c r="KQ10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10499,8 +10529,11 @@
       <c r="KP11" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="KQ11" t="n">
+      <c r="KQ11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11412,8 +11445,11 @@
       <c r="KP12" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KQ12" t="n">
+      <c r="KQ12" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KR12" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12325,8 +12361,11 @@
       <c r="KP13" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="KQ13" t="n">
+      <c r="KQ13" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="KR13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13238,8 +13277,11 @@
       <c r="KP14" s="2" t="n">
         <v>1.33</v>
       </c>
-      <c r="KQ14" t="n">
+      <c r="KQ14" s="2" t="n">
         <v>1.68</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14151,8 +14193,11 @@
       <c r="KP15" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KQ15" t="n">
+      <c r="KQ15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15064,8 +15109,11 @@
       <c r="KP16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KQ16" t="n">
+      <c r="KQ16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15977,8 +16025,11 @@
       <c r="KP17" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KQ17" t="n">
+      <c r="KQ17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16890,8 +16941,11 @@
       <c r="KP18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ18" t="n">
+      <c r="KQ18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KR18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17803,8 +17857,11 @@
       <c r="KP19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KQ19" t="n">
+      <c r="KQ19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18716,8 +18773,11 @@
       <c r="KP20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KQ20" t="n">
+      <c r="KQ20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR20" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19629,8 +19689,11 @@
       <c r="KP21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ21" t="n">
+      <c r="KQ21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KR21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20542,8 +20605,11 @@
       <c r="KP22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ22" t="n">
+      <c r="KQ22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KR22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21455,7 +21521,10 @@
       <c r="KP23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ23" t="n">
+      <c r="KQ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22368,8 +22437,11 @@
       <c r="KP24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KQ24" t="n">
+      <c r="KQ24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KR24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23281,8 +23353,11 @@
       <c r="KP25" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KQ25" t="n">
+      <c r="KQ25" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="KR25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24194,8 +24269,11 @@
       <c r="KP26" s="2" t="n">
         <v>22.69</v>
       </c>
-      <c r="KQ26" t="n">
+      <c r="KQ26" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KR26" t="n">
+        <v>18.15</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25107,8 +25185,11 @@
       <c r="KP27" s="2" t="n">
         <v>14.52</v>
       </c>
-      <c r="KQ27" t="n">
+      <c r="KQ27" s="2" t="n">
         <v>12.7</v>
+      </c>
+      <c r="KR27" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26020,8 +26101,11 @@
       <c r="KP28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ28" t="n">
+      <c r="KQ28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KR28" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26933,7 +27017,10 @@
       <c r="KP29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ29" t="n">
+      <c r="KQ29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR29" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27846,8 +27933,11 @@
       <c r="KP30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KQ30" t="n">
+      <c r="KQ30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KR30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28759,8 +28849,11 @@
       <c r="KP31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ31" t="n">
+      <c r="KQ31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KR31" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29672,8 +29765,11 @@
       <c r="KP32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KQ32" t="n">
+      <c r="KQ32" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="KR32" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30585,8 +30681,11 @@
       <c r="KP33" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="KQ33" t="n">
+      <c r="KQ33" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="KR33" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31498,8 +31597,11 @@
       <c r="KP34" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="KQ34" t="n">
+      <c r="KQ34" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="KR34" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32411,8 +32513,11 @@
       <c r="KP35" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="KQ35" t="n">
+      <c r="KQ35" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="KR35" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33324,7 +33429,10 @@
       <c r="KP36" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="KQ36" t="n">
+      <c r="KQ36" s="2" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="KR36" t="n">
         <v>186.6</v>
       </c>
     </row>
@@ -34237,8 +34345,11 @@
       <c r="KP37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KQ37" t="n">
+      <c r="KQ37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KR37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35150,8 +35261,11 @@
       <c r="KP38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KQ38" t="n">
+      <c r="KQ38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KR38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36063,8 +36177,11 @@
       <c r="KP39" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="KQ39" t="n">
+      <c r="KQ39" s="2" t="n">
         <v>116.8</v>
+      </c>
+      <c r="KR39" t="n">
+        <v>116.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36976,7 +37093,10 @@
       <c r="KP40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KQ40" t="n">
+      <c r="KQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37889,7 +38009,10 @@
       <c r="KP41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ41" t="n">
+      <c r="KQ41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38802,7 +38925,10 @@
       <c r="KP42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ42" t="n">
+      <c r="KQ42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39715,7 +39841,10 @@
       <c r="KP43" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ43" t="n">
+      <c r="KQ43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR43" t="n">
         <v>12</v>
       </c>
     </row>
@@ -40628,8 +40757,11 @@
       <c r="KP44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KQ44" t="n">
+      <c r="KQ44" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KR44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41541,8 +41673,11 @@
       <c r="KP45" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KQ45" t="n">
+      <c r="KQ45" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="KR45" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42454,8 +42589,11 @@
       <c r="KP46" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KQ46" t="n">
+      <c r="KQ46" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KR46" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43367,8 +43505,11 @@
       <c r="KP47" s="2" t="n">
         <v>71.3</v>
       </c>
-      <c r="KQ47" t="n">
+      <c r="KQ47" s="2" t="n">
         <v>65.3</v>
+      </c>
+      <c r="KR47" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44280,7 +44421,10 @@
       <c r="KP48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ48" t="n">
+      <c r="KQ48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR48" t="n">
         <v>50</v>
       </c>
     </row>
@@ -45193,8 +45337,11 @@
       <c r="KP49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KQ49" t="n">
+      <c r="KQ49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46106,8 +46253,11 @@
       <c r="KP50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KQ50" t="n">
+      <c r="KQ50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KR50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47019,8 +47169,11 @@
       <c r="KP51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ51" t="n">
+      <c r="KQ51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KR51" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47932,8 +48085,11 @@
       <c r="KP52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KQ52" t="n">
+      <c r="KQ52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KR52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48845,8 +49001,11 @@
       <c r="KP53" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KQ53" t="n">
+      <c r="KQ53" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KR53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49758,8 +49917,11 @@
       <c r="KP54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ54" t="n">
+      <c r="KQ54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50671,8 +50833,11 @@
       <c r="KP55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ55" t="n">
+      <c r="KQ55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KR55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51584,8 +51749,11 @@
       <c r="KP56" s="2" t="n">
         <v>43.8</v>
       </c>
-      <c r="KQ56" t="n">
+      <c r="KQ56" s="2" t="n">
         <v>92.90000000000001</v>
+      </c>
+      <c r="KR56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52497,8 +52665,11 @@
       <c r="KP57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KQ57" t="n">
+      <c r="KQ57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="KR57" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53410,8 +53581,11 @@
       <c r="KP58" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KQ58" t="n">
+      <c r="KQ58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KR58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54323,8 +54497,11 @@
       <c r="KP59" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="KQ59" t="n">
+      <c r="KQ59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KR59" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55236,8 +55413,11 @@
       <c r="KP60" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="KQ60" t="n">
+      <c r="KQ60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KR60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56149,8 +56329,11 @@
       <c r="KP61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KQ61" t="n">
+      <c r="KQ61" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KR61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57062,8 +57245,11 @@
       <c r="KP62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KQ62" t="n">
+      <c r="KQ62" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KR62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57975,8 +58161,11 @@
       <c r="KP63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KQ63" t="n">
+      <c r="KQ63" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KR63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58888,8 +59077,11 @@
       <c r="KP64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KQ64" t="n">
+      <c r="KQ64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59801,8 +59993,11 @@
       <c r="KP65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ65" t="n">
+      <c r="KQ65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KR65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60714,8 +60909,11 @@
       <c r="KP66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KQ66" t="n">
+      <c r="KQ66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KR66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61627,8 +61825,11 @@
       <c r="KP67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KQ67" t="n">
+      <c r="KQ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62540,8 +62741,11 @@
       <c r="KP68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ68" t="n">
+      <c r="KQ68" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63453,8 +63657,11 @@
       <c r="KP69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ69" t="n">
+      <c r="KQ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64366,8 +64573,11 @@
       <c r="KP70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KQ70" t="n">
+      <c r="KQ70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KR70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65279,8 +65489,11 @@
       <c r="KP71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KQ71" t="n">
+      <c r="KQ71" s="2" t="n">
         <v>46.4</v>
+      </c>
+      <c r="KR71" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66192,8 +66405,11 @@
       <c r="KP72" s="2" t="n">
         <v>20.94</v>
       </c>
-      <c r="KQ72" t="n">
+      <c r="KQ72" s="2" t="n">
         <v>26.08</v>
+      </c>
+      <c r="KR72" t="n">
+        <v>22.27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67105,8 +67321,11 @@
       <c r="KP73" s="2" t="n">
         <v>13.96</v>
       </c>
-      <c r="KQ73" t="n">
+      <c r="KQ73" s="2" t="n">
         <v>12.11</v>
+      </c>
+      <c r="KR73" t="n">
+        <v>14.52</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68018,8 +68237,11 @@
       <c r="KP74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KQ74" t="n">
+      <c r="KQ74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KR74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68931,8 +69153,11 @@
       <c r="KP75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KQ75" t="n">
+      <c r="KQ75" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KR75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69844,8 +70069,11 @@
       <c r="KP76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KQ76" t="n">
+      <c r="KQ76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KR76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70757,8 +70985,11 @@
       <c r="KP77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KQ77" t="n">
+      <c r="KQ77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KR77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71670,8 +71901,11 @@
       <c r="KP78" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="KQ78" t="n">
+      <c r="KQ78" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="KR78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72583,8 +72817,11 @@
       <c r="KP79" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KQ79" t="n">
+      <c r="KQ79" s="2" t="n">
         <v>4.15</v>
+      </c>
+      <c r="KR79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73496,8 +73733,11 @@
       <c r="KP80" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="KQ80" t="n">
+      <c r="KQ80" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KR80" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74409,8 +74649,11 @@
       <c r="KP81" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="KQ81" t="n">
+      <c r="KQ81" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="KR81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75322,8 +75565,11 @@
       <c r="KP82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KQ82" t="n">
+      <c r="KQ82" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KR82" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76235,8 +76481,11 @@
       <c r="KP83" s="2" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="KQ83" t="n">
+      <c r="KQ83" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="KR83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77148,8 +77397,11 @@
       <c r="KP84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KQ84" t="n">
+      <c r="KQ84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KR84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78061,8 +78313,11 @@
       <c r="KP85" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KQ85" t="n">
+      <c r="KQ85" s="2" t="n">
         <v>84.7</v>
+      </c>
+      <c r="KR85" t="n">
+        <v>128.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78974,8 +79229,11 @@
       <c r="KP86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KQ86" t="n">
+      <c r="KQ86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KR86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79887,8 +80145,11 @@
       <c r="KP87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ87" t="n">
+      <c r="KQ87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80800,8 +81061,11 @@
       <c r="KP88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ88" t="n">
+      <c r="KQ88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KR88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81713,8 +81977,11 @@
       <c r="KP89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ89" t="n">
+      <c r="KQ89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KR89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82626,8 +82893,11 @@
       <c r="KP90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KQ90" t="n">
+      <c r="KQ90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KR90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83539,8 +83809,11 @@
       <c r="KP91" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="KQ91" t="n">
+      <c r="KQ91" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KR91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84452,8 +84725,11 @@
       <c r="KP92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KQ92" t="n">
+      <c r="KQ92" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KR92" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85365,8 +85641,11 @@
       <c r="KP93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="KQ93" t="n">
+      <c r="KQ93" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="KR93" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86278,8 +86557,11 @@
       <c r="KP94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KQ94" t="n">
+      <c r="KQ94" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KR94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87191,8 +87473,11 @@
       <c r="KP95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KQ95" t="n">
+      <c r="KQ95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KR95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88104,8 +88389,11 @@
       <c r="KP96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KQ96" t="n">
+      <c r="KQ96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89017,8 +89305,11 @@
       <c r="KP97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KQ97" t="n">
+      <c r="KQ97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KR97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89930,8 +90221,11 @@
       <c r="KP98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KQ98" t="n">
+      <c r="KQ98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KR98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90843,8 +91137,11 @@
       <c r="KP99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KQ99" t="n">
+      <c r="KQ99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KR99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91756,8 +92053,11 @@
       <c r="KP100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ100" t="n">
+      <c r="KQ100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KR100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92669,8 +92969,11 @@
       <c r="KP101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KQ101" t="n">
+      <c r="KQ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93582,8 +93885,11 @@
       <c r="KP102" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="KQ102" t="n">
+      <c r="KQ102" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KR102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1375,8 +1375,11 @@
       <c r="KR1" s="2" t="n">
         <v>10918</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10926</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10931</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2294,7 +2297,10 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3213,8 +3219,11 @@
       <c r="KR3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4132,7 +4141,10 @@
       <c r="KR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,8 +5063,11 @@
       <c r="KR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5970,8 +5985,11 @@
       <c r="KR6" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6889,8 +6907,11 @@
       <c r="KR7" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7808,8 +7829,11 @@
       <c r="KR8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8727,8 +8751,11 @@
       <c r="KR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9646,8 +9673,11 @@
       <c r="KR10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10565,8 +10595,11 @@
       <c r="KR11" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11484,8 +11517,11 @@
       <c r="KR12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12403,8 +12439,11 @@
       <c r="KR13" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>404</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13322,8 +13361,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.06</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14241,8 +14283,11 @@
       <c r="KR15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15160,8 +15205,11 @@
       <c r="KR16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16079,8 +16127,11 @@
       <c r="KR17" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16998,8 +17049,11 @@
       <c r="KR18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17917,8 +17971,11 @@
       <c r="KR19" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18836,8 +18893,11 @@
       <c r="KR20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19755,8 +19815,11 @@
       <c r="KR21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20674,8 +20737,11 @@
       <c r="KR22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21593,8 +21659,11 @@
       <c r="KR23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22512,8 +22581,11 @@
       <c r="KR24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23431,8 +23503,11 @@
       <c r="KR25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>53.6</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24350,8 +24425,11 @@
       <c r="KR26" s="2" t="n">
         <v>18.15</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>26.93</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>44.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25269,8 +25347,11 @@
       <c r="KR27" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>14.43</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>22.19</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26188,8 +26269,11 @@
       <c r="KR28" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27107,8 +27191,11 @@
       <c r="KR29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28026,8 +28113,11 @@
       <c r="KR30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28945,8 +29035,11 @@
       <c r="KR31" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29864,8 +29957,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.46</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30783,8 +30879,11 @@
       <c r="KR33" s="2" t="n">
         <v>3.65</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>4.6</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31702,8 +31801,11 @@
       <c r="KR34" s="2" t="n">
         <v>38.4</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32621,8 +32723,11 @@
       <c r="KR35" s="2" t="n">
         <v>27.4</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33540,8 +33645,11 @@
       <c r="KR36" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>186.3</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34459,8 +34567,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35378,8 +35489,11 @@
       <c r="KR38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36297,8 +36411,11 @@
       <c r="KR39" s="2" t="n">
         <v>116.7</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>121.3</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>128.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37216,7 +37333,10 @@
       <c r="KR40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38135,8 +38255,11 @@
       <c r="KR41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39054,7 +39177,10 @@
       <c r="KR42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -39973,8 +40099,11 @@
       <c r="KR43" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40892,8 +41021,11 @@
       <c r="KR44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41811,8 +41943,11 @@
       <c r="KR45" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42730,8 +42865,11 @@
       <c r="KR46" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>291</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43649,8 +43787,11 @@
       <c r="KR47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44568,8 +44709,11 @@
       <c r="KR48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45487,7 +45631,10 @@
       <c r="KR49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -46406,8 +46553,11 @@
       <c r="KR50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47325,8 +47475,11 @@
       <c r="KR51" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48244,8 +48397,11 @@
       <c r="KR52" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49163,7 +49319,10 @@
       <c r="KR53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KT53" t="n">
         <v>60</v>
       </c>
     </row>
@@ -50082,8 +50241,11 @@
       <c r="KR54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51001,8 +51163,11 @@
       <c r="KR55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51920,8 +52085,11 @@
       <c r="KR56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52839,8 +53007,11 @@
       <c r="KR57" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53758,8 +53929,11 @@
       <c r="KR58" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54677,8 +54851,11 @@
       <c r="KR59" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55596,8 +55773,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56515,8 +56695,11 @@
       <c r="KR61" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57434,8 +57617,11 @@
       <c r="KR62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58353,8 +58539,11 @@
       <c r="KR63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59272,8 +59461,11 @@
       <c r="KR64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60191,8 +60383,11 @@
       <c r="KR65" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61110,8 +61305,11 @@
       <c r="KR66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62029,7 +62227,10 @@
       <c r="KR67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -62948,8 +63149,11 @@
       <c r="KR68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63867,8 +64071,11 @@
       <c r="KR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64786,8 +64993,11 @@
       <c r="KR70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65705,8 +65915,11 @@
       <c r="KR71" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>47.6</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66624,8 +66837,11 @@
       <c r="KR72" s="2" t="n">
         <v>22.27</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>35.2</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>42.89</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67543,8 +67759,11 @@
       <c r="KR73" s="2" t="n">
         <v>14.52</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>16.76</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>25.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68462,8 +68681,11 @@
       <c r="KR74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69381,8 +69603,11 @@
       <c r="KR75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70300,8 +70525,11 @@
       <c r="KR76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71219,8 +71447,11 @@
       <c r="KR77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72138,8 +72369,11 @@
       <c r="KR78" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73057,8 +73291,11 @@
       <c r="KR79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>4.5</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73976,8 +74213,11 @@
       <c r="KR80" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74895,8 +75135,11 @@
       <c r="KR81" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>22.2</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75814,8 +76057,11 @@
       <c r="KR82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76733,8 +76979,11 @@
       <c r="KR83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77652,8 +77901,11 @@
       <c r="KR84" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78571,8 +78823,11 @@
       <c r="KR85" s="2" t="n">
         <v>128.3</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79490,8 +79745,11 @@
       <c r="KR86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80409,8 +80667,11 @@
       <c r="KR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81328,7 +81589,10 @@
       <c r="KR88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -82247,8 +82511,11 @@
       <c r="KR89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83166,8 +83433,11 @@
       <c r="KR90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84085,8 +84355,11 @@
       <c r="KR91" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85004,8 +85277,11 @@
       <c r="KR92" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85923,8 +86199,11 @@
       <c r="KR93" s="2" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86842,8 +87121,11 @@
       <c r="KR94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87761,8 +88043,11 @@
       <c r="KR95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88680,8 +88965,11 @@
       <c r="KR96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89599,8 +89887,11 @@
       <c r="KR97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90518,8 +90809,11 @@
       <c r="KR98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91437,8 +91731,11 @@
       <c r="KR99" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92356,8 +92653,11 @@
       <c r="KR100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93275,7 +93575,10 @@
       <c r="KR101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -94194,8 +94497,11 @@
       <c r="KR102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1378,8 +1378,11 @@
       <c r="KS1" s="2" t="n">
         <v>10926</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="2" t="n">
         <v>10931</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10943</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2300,7 +2303,10 @@
       <c r="KS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3222,8 +3228,11 @@
       <c r="KS3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4144,8 +4153,11 @@
       <c r="KS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5066,7 +5078,10 @@
       <c r="KS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5988,8 +6003,11 @@
       <c r="KS6" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6910,7 +6928,10 @@
       <c r="KS7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU7" t="n">
         <v>60</v>
       </c>
     </row>
@@ -7832,8 +7853,11 @@
       <c r="KS8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="2" t="n">
         <v>-4</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8754,8 +8778,11 @@
       <c r="KS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9676,8 +9703,11 @@
       <c r="KS10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10598,8 +10628,11 @@
       <c r="KS11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11520,8 +11553,11 @@
       <c r="KS12" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12442,8 +12478,11 @@
       <c r="KS13" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13364,8 +13403,11 @@
       <c r="KS14" s="2" t="n">
         <v>1.06</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="2" t="n">
         <v>1.34</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14286,8 +14328,11 @@
       <c r="KS15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15208,8 +15253,11 @@
       <c r="KS16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16130,8 +16178,11 @@
       <c r="KS17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17052,8 +17103,11 @@
       <c r="KS18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17974,7 +18028,10 @@
       <c r="KS19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KU19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18896,8 +18953,11 @@
       <c r="KS20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19818,8 +19878,11 @@
       <c r="KS21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20740,8 +20803,11 @@
       <c r="KS22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21662,7 +21728,10 @@
       <c r="KS23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22584,8 +22653,11 @@
       <c r="KS24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23506,8 +23578,11 @@
       <c r="KS25" s="2" t="n">
         <v>53.6</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24428,8 +24503,11 @@
       <c r="KS26" s="2" t="n">
         <v>26.93</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="2" t="n">
         <v>44.38</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>26.54</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25350,8 +25428,11 @@
       <c r="KS27" s="2" t="n">
         <v>14.43</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="2" t="n">
         <v>22.19</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>15.68</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26272,8 +26353,11 @@
       <c r="KS28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27194,8 +27278,11 @@
       <c r="KS29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28116,8 +28203,11 @@
       <c r="KS30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29038,8 +29128,11 @@
       <c r="KS31" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29960,8 +30053,11 @@
       <c r="KS32" s="2" t="n">
         <v>2.46</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30882,8 +30978,11 @@
       <c r="KS33" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31804,8 +31903,11 @@
       <c r="KS34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32726,8 +32828,11 @@
       <c r="KS35" s="2" t="n">
         <v>21.7</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33648,8 +33753,11 @@
       <c r="KS36" s="2" t="n">
         <v>186.3</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34570,8 +34678,11 @@
       <c r="KS37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35492,8 +35603,11 @@
       <c r="KS38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36414,8 +36528,11 @@
       <c r="KS39" s="2" t="n">
         <v>121.3</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="2" t="n">
         <v>128.2</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>120.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37336,8 +37453,11 @@
       <c r="KS40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38258,7 +38378,10 @@
       <c r="KS41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39180,8 +39303,11 @@
       <c r="KS42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -40102,7 +40228,10 @@
       <c r="KS43" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -41024,8 +41153,11 @@
       <c r="KS44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41946,8 +42078,11 @@
       <c r="KS45" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42868,8 +43003,11 @@
       <c r="KS46" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43790,8 +43928,11 @@
       <c r="KS47" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="2" t="n">
         <v>66.2</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44712,8 +44853,11 @@
       <c r="KS48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45634,8 +45778,11 @@
       <c r="KS49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46556,8 +46703,11 @@
       <c r="KS50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47478,8 +47628,11 @@
       <c r="KS51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48400,8 +48553,11 @@
       <c r="KS52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49322,8 +49478,11 @@
       <c r="KS53" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50244,8 +50403,11 @@
       <c r="KS54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51166,8 +51328,11 @@
       <c r="KS55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52088,8 +52253,11 @@
       <c r="KS56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53010,8 +53178,11 @@
       <c r="KS57" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53932,8 +54103,11 @@
       <c r="KS58" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54854,8 +55028,11 @@
       <c r="KS59" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="2" t="n">
         <v>386</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55776,8 +55953,11 @@
       <c r="KS60" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56698,8 +56878,11 @@
       <c r="KS61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57620,8 +57803,11 @@
       <c r="KS62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58542,8 +58728,11 @@
       <c r="KS63" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59464,7 +59653,10 @@
       <c r="KS64" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KU64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -60386,8 +60578,11 @@
       <c r="KS65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61308,7 +61503,10 @@
       <c r="KS66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KU66" t="n">
         <v>9</v>
       </c>
     </row>
@@ -62230,7 +62428,10 @@
       <c r="KS67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -63152,8 +63353,11 @@
       <c r="KS68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64074,8 +64278,11 @@
       <c r="KS69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64996,7 +65203,10 @@
       <c r="KS70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU70" t="n">
         <v>15</v>
       </c>
     </row>
@@ -65918,7 +66128,10 @@
       <c r="KS71" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU71" t="n">
         <v>60</v>
       </c>
     </row>
@@ -66840,8 +67053,11 @@
       <c r="KS72" s="2" t="n">
         <v>35.2</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="2" t="n">
         <v>42.89</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>41.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67762,8 +67978,11 @@
       <c r="KS73" s="2" t="n">
         <v>16.76</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="2" t="n">
         <v>25.73</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>24.87</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68684,8 +68903,11 @@
       <c r="KS74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69606,8 +69828,11 @@
       <c r="KS75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70528,8 +70753,11 @@
       <c r="KS76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71450,8 +71678,11 @@
       <c r="KS77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72372,8 +72603,11 @@
       <c r="KS78" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73294,8 +73528,11 @@
       <c r="KS79" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74216,8 +74453,11 @@
       <c r="KS80" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75138,8 +75378,11 @@
       <c r="KS81" s="2" t="n">
         <v>22.2</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76060,8 +76303,11 @@
       <c r="KS82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76982,7 +77228,10 @@
       <c r="KS83" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="KU83" t="n">
         <v>85.90000000000001</v>
       </c>
     </row>
@@ -77904,8 +78153,11 @@
       <c r="KS84" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>23.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78826,8 +79078,11 @@
       <c r="KS85" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="2" t="n">
         <v>93.3</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79748,8 +80003,11 @@
       <c r="KS86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80670,7 +80928,10 @@
       <c r="KS87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -81592,8 +81853,11 @@
       <c r="KS88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82514,8 +82778,11 @@
       <c r="KS89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83436,8 +83703,11 @@
       <c r="KS90" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84358,8 +84628,11 @@
       <c r="KS91" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85280,8 +85553,11 @@
       <c r="KS92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86202,8 +86478,11 @@
       <c r="KS93" s="2" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87124,8 +87403,11 @@
       <c r="KS94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88046,8 +88328,11 @@
       <c r="KS95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KU95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88968,7 +89253,10 @@
       <c r="KS96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KU96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -89890,8 +90178,11 @@
       <c r="KS97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90812,8 +91103,11 @@
       <c r="KS98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91734,8 +92028,11 @@
       <c r="KS99" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92656,8 +92953,11 @@
       <c r="KS100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93578,7 +93878,10 @@
       <c r="KS101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -94500,7 +94803,10 @@
       <c r="KS102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KU102" t="n">
         <v>66.7</v>
       </c>
     </row>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1390,8 +1390,11 @@
       <c r="KW1" s="2" t="n">
         <v>10962</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10966</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>11174</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2324,8 +2327,11 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
         <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3258,8 +3264,11 @@
       <c r="KW3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4192,8 +4201,11 @@
       <c r="KW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5126,8 +5138,11 @@
       <c r="KW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6060,8 +6075,11 @@
       <c r="KW6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6994,8 +7012,11 @@
       <c r="KW7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7928,8 +7949,11 @@
       <c r="KW8" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8862,7 +8886,10 @@
       <c r="KW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9796,8 +9823,11 @@
       <c r="KW10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10730,8 +10760,11 @@
       <c r="KW11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11664,8 +11697,11 @@
       <c r="KW12" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12598,8 +12634,11 @@
       <c r="KW13" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>368</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13532,8 +13571,11 @@
       <c r="KW14" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14466,8 +14508,11 @@
       <c r="KW15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15400,8 +15445,11 @@
       <c r="KW16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16334,7 +16382,10 @@
       <c r="KW17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KY17" t="n">
         <v>38</v>
       </c>
     </row>
@@ -17268,8 +17319,11 @@
       <c r="KW18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18202,8 +18256,11 @@
       <c r="KW19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19136,7 +19193,10 @@
       <c r="KW20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -20070,8 +20130,11 @@
       <c r="KW21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21004,8 +21067,11 @@
       <c r="KW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21938,7 +22004,10 @@
       <c r="KW23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22872,8 +22941,11 @@
       <c r="KW24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23806,8 +23878,11 @@
       <c r="KW25" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>34.6</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24740,8 +24815,11 @@
       <c r="KW26" s="2" t="n">
         <v>46.43</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>40.89</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>39.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25674,8 +25752,11 @@
       <c r="KW27" s="2" t="n">
         <v>18.06</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>14.15</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>18.58</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26608,8 +26689,11 @@
       <c r="KW28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27542,8 +27626,11 @@
       <c r="KW29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28476,8 +28563,11 @@
       <c r="KW30" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29410,8 +29500,11 @@
       <c r="KW31" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30344,8 +30437,11 @@
       <c r="KW32" s="2" t="n">
         <v>3.83</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31278,8 +31374,11 @@
       <c r="KW33" s="2" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32212,8 +32311,11 @@
       <c r="KW34" s="2" t="n">
         <v>21.7</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>45.3</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33146,8 +33248,11 @@
       <c r="KW35" s="2" t="n">
         <v>10.1</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34080,8 +34185,11 @@
       <c r="KW36" s="2" t="n">
         <v>186.1</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>186.5</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35014,8 +35122,11 @@
       <c r="KW37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35948,8 +36059,11 @@
       <c r="KW38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36882,8 +36996,11 @@
       <c r="KW39" s="2" t="n">
         <v>124.7</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>126.6</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>109.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37816,8 +37933,11 @@
       <c r="KW40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38750,8 +38870,11 @@
       <c r="KW41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39684,7 +39807,10 @@
       <c r="KW42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40618,8 +40744,11 @@
       <c r="KW43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KY43" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41552,8 +41681,11 @@
       <c r="KW44" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42486,8 +42618,11 @@
       <c r="KW45" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43420,8 +43555,11 @@
       <c r="KW46" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44354,8 +44492,11 @@
       <c r="KW47" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>66.3</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45288,8 +45429,11 @@
       <c r="KW48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46222,8 +46366,11 @@
       <c r="KW49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47156,8 +47303,11 @@
       <c r="KW50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48090,8 +48240,11 @@
       <c r="KW51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49024,8 +49177,11 @@
       <c r="KW52" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49958,8 +50114,11 @@
       <c r="KW53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50892,8 +51051,11 @@
       <c r="KW54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51826,8 +51988,11 @@
       <c r="KW55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52760,8 +52925,11 @@
       <c r="KW56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53694,8 +53862,11 @@
       <c r="KW57" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54628,8 +54799,11 @@
       <c r="KW58" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55562,8 +55736,11 @@
       <c r="KW59" s="2" t="n">
         <v>319</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56496,8 +56673,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.98</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57430,8 +57610,11 @@
       <c r="KW61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58364,8 +58547,11 @@
       <c r="KW62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59298,8 +59484,11 @@
       <c r="KW63" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60232,8 +60421,11 @@
       <c r="KW64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61166,8 +61358,11 @@
       <c r="KW65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62100,8 +62295,11 @@
       <c r="KW66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63034,8 +63232,11 @@
       <c r="KW67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63968,8 +64169,11 @@
       <c r="KW68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64902,8 +65106,11 @@
       <c r="KW69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65836,8 +66043,11 @@
       <c r="KW70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66770,8 +66980,11 @@
       <c r="KW71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67704,8 +67917,11 @@
       <c r="KW72" s="2" t="n">
         <v>35.44</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>32.82</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>29.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68638,8 +68854,11 @@
       <c r="KW73" s="2" t="n">
         <v>21.27</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>20.06</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>13.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69572,8 +69791,11 @@
       <c r="KW74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70506,8 +70728,11 @@
       <c r="KW75" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71440,8 +71665,11 @@
       <c r="KW76" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72374,8 +72602,11 @@
       <c r="KW77" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73308,8 +73539,11 @@
       <c r="KW78" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74242,8 +74476,11 @@
       <c r="KW79" s="2" t="n">
         <v>4.11</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>4.73</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75176,8 +75413,11 @@
       <c r="KW80" s="2" t="n">
         <v>37.8</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76110,8 +76350,11 @@
       <c r="KW81" s="2" t="n">
         <v>24.3</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>21.2</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77044,8 +77287,11 @@
       <c r="KW82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77978,8 +78224,11 @@
       <c r="KW83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78912,8 +79161,11 @@
       <c r="KW84" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79846,8 +80098,11 @@
       <c r="KW85" s="2" t="n">
         <v>150.2</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>105.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80780,8 +81035,11 @@
       <c r="KW86" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81714,8 +81972,11 @@
       <c r="KW87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82648,8 +82909,11 @@
       <c r="KW88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83582,8 +83846,11 @@
       <c r="KW89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84516,8 +84783,11 @@
       <c r="KW90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85450,8 +85720,11 @@
       <c r="KW91" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86384,8 +86657,11 @@
       <c r="KW92" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87318,8 +87594,11 @@
       <c r="KW93" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88252,8 +88531,11 @@
       <c r="KW94" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89186,8 +89468,11 @@
       <c r="KW95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90120,7 +90405,10 @@
       <c r="KW96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY96" t="n">
         <v>9</v>
       </c>
     </row>
@@ -91054,8 +91342,11 @@
       <c r="KW97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91988,8 +92279,11 @@
       <c r="KW98" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92922,8 +93216,11 @@
       <c r="KW99" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93856,7 +94153,10 @@
       <c r="KW100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY100" t="n">
         <v>7</v>
       </c>
     </row>
@@ -94790,8 +95090,11 @@
       <c r="KW101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95724,8 +96027,11 @@
       <c r="KW102" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1393,8 +1393,11 @@
       <c r="KX1" s="2" t="n">
         <v>10966</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="2" t="n">
         <v>11174</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>10977</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2330,8 +2333,11 @@
       <c r="KX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="2" t="n">
         <v>2024</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3267,8 +3273,11 @@
       <c r="KX3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4204,8 +4213,11 @@
       <c r="KX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5141,7 +5153,10 @@
       <c r="KX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6078,8 +6093,11 @@
       <c r="KX6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7015,8 +7033,11 @@
       <c r="KX7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7952,8 +7973,11 @@
       <c r="KX8" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="2" t="n">
         <v>-22</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8889,8 +8913,11 @@
       <c r="KX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9826,8 +9853,11 @@
       <c r="KX10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10763,8 +10793,11 @@
       <c r="KX11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11700,8 +11733,11 @@
       <c r="KX12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12637,8 +12673,11 @@
       <c r="KX13" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13574,8 +13613,11 @@
       <c r="KX14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14511,8 +14553,11 @@
       <c r="KX15" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15448,8 +15493,11 @@
       <c r="KX16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16385,7 +16433,10 @@
       <c r="KX17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KZ17" t="n">
         <v>38</v>
       </c>
     </row>
@@ -17322,8 +17373,11 @@
       <c r="KX18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18259,8 +18313,11 @@
       <c r="KX19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19196,8 +19253,11 @@
       <c r="KX20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20133,8 +20193,11 @@
       <c r="KX21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21070,8 +21133,11 @@
       <c r="KX22" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22007,7 +22073,10 @@
       <c r="KX23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22944,8 +23013,11 @@
       <c r="KX24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23881,8 +23953,11 @@
       <c r="KX25" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24818,8 +24893,11 @@
       <c r="KX26" s="2" t="n">
         <v>40.89</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="2" t="n">
         <v>39.22</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25755,8 +25833,11 @@
       <c r="KX27" s="2" t="n">
         <v>14.15</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="2" t="n">
         <v>18.58</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26692,8 +26773,11 @@
       <c r="KX28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KZ28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27629,8 +27713,11 @@
       <c r="KX29" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28566,8 +28653,11 @@
       <c r="KX30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29503,8 +29593,11 @@
       <c r="KX31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KZ31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30440,8 +30533,11 @@
       <c r="KX32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="2" t="n">
         <v>2.68</v>
+      </c>
+      <c r="KZ32" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31377,8 +31473,11 @@
       <c r="KX33" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="2" t="n">
         <v>5.67</v>
+      </c>
+      <c r="KZ33" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32314,8 +32413,11 @@
       <c r="KX34" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KZ34" t="n">
+        <v>50.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33251,8 +33353,11 @@
       <c r="KX35" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="2" t="n">
         <v>17.6</v>
+      </c>
+      <c r="KZ35" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34188,8 +34293,11 @@
       <c r="KX36" s="2" t="n">
         <v>186.5</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KZ36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35125,8 +35233,11 @@
       <c r="KX37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="KZ37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36062,8 +36173,11 @@
       <c r="KX38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KZ38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36999,8 +37113,11 @@
       <c r="KX39" s="2" t="n">
         <v>126.6</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="2" t="n">
         <v>109.4</v>
+      </c>
+      <c r="KZ39" t="n">
+        <v>113.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37936,7 +38053,10 @@
       <c r="KX40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38873,8 +38993,11 @@
       <c r="KX41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39810,7 +39933,10 @@
       <c r="KX42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KZ42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40747,8 +40873,11 @@
       <c r="KX43" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ43" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41684,8 +41813,11 @@
       <c r="KX44" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42621,8 +42753,11 @@
       <c r="KX45" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43558,8 +43693,11 @@
       <c r="KX46" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="KZ46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44495,8 +44633,11 @@
       <c r="KX47" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KZ47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45432,8 +45573,11 @@
       <c r="KX48" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KZ48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46369,8 +46513,11 @@
       <c r="KX49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47306,8 +47453,11 @@
       <c r="KX50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48243,8 +48393,11 @@
       <c r="KX51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KZ51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49180,8 +49333,11 @@
       <c r="KX52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KZ52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50117,8 +50273,11 @@
       <c r="KX53" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KZ53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51054,8 +51213,11 @@
       <c r="KX54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51991,8 +52153,11 @@
       <c r="KX55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52928,8 +53093,11 @@
       <c r="KX56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KZ56" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53865,8 +54033,11 @@
       <c r="KX57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="KZ57" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54802,8 +54973,11 @@
       <c r="KX58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KZ58" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55739,8 +55913,11 @@
       <c r="KX59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="KZ59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56676,8 +56853,11 @@
       <c r="KX60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="KZ60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57613,7 +57793,10 @@
       <c r="KX61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KZ61" t="n">
         <v>99</v>
       </c>
     </row>
@@ -58550,8 +58733,11 @@
       <c r="KX62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KZ62" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59487,8 +59673,11 @@
       <c r="KX63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KZ63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60424,8 +60613,11 @@
       <c r="KX64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KZ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61361,8 +61553,11 @@
       <c r="KX65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KZ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62298,8 +62493,11 @@
       <c r="KX66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63235,7 +63433,10 @@
       <c r="KX67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64172,8 +64373,11 @@
       <c r="KX68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65109,8 +65313,11 @@
       <c r="KX69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66046,8 +66253,11 @@
       <c r="KX70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KZ70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66983,8 +67193,11 @@
       <c r="KX71" s="2" t="n">
         <v>61.1</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="KZ71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67920,8 +68133,11 @@
       <c r="KX72" s="2" t="n">
         <v>32.82</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="2" t="n">
         <v>29.75</v>
+      </c>
+      <c r="KZ72" t="n">
+        <v>40.22</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68857,8 +69073,11 @@
       <c r="KX73" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="2" t="n">
         <v>13.73</v>
+      </c>
+      <c r="KZ73" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69794,8 +70013,11 @@
       <c r="KX74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KZ74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70731,7 +70953,10 @@
       <c r="KX75" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="KZ75" t="n">
         <v>63</v>
       </c>
     </row>
@@ -71668,8 +71893,11 @@
       <c r="KX76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KZ76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72605,8 +72833,11 @@
       <c r="KX77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KZ77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73542,8 +73773,11 @@
       <c r="KX78" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KZ78" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74479,8 +74713,11 @@
       <c r="KX79" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="2" t="n">
         <v>5.42</v>
+      </c>
+      <c r="KZ79" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75416,8 +75653,11 @@
       <c r="KX80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="KZ80" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76353,8 +76593,11 @@
       <c r="KX81" s="2" t="n">
         <v>21.2</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="KZ81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77290,8 +77533,11 @@
       <c r="KX82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KZ82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78227,8 +78473,11 @@
       <c r="KX83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KZ83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79164,8 +79413,11 @@
       <c r="KX84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KZ84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80101,8 +80353,11 @@
       <c r="KX85" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="2" t="n">
         <v>105.3</v>
+      </c>
+      <c r="KZ85" t="n">
+        <v>106.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81038,8 +81293,11 @@
       <c r="KX86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81975,8 +82233,11 @@
       <c r="KX87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82912,8 +83173,11 @@
       <c r="KX88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83849,8 +84113,11 @@
       <c r="KX89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KZ89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84786,8 +85053,11 @@
       <c r="KX90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KZ90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85723,8 +85993,11 @@
       <c r="KX91" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KZ91" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86660,8 +86933,11 @@
       <c r="KX92" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="KZ92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87597,8 +87873,11 @@
       <c r="KX93" s="2" t="n">
         <v>71.7</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="2" t="n">
         <v>68.90000000000001</v>
+      </c>
+      <c r="KZ93" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88534,7 +88813,10 @@
       <c r="KX94" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="KZ94" t="n">
         <v>63</v>
       </c>
     </row>
@@ -89471,8 +89753,11 @@
       <c r="KX95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90408,8 +90693,11 @@
       <c r="KX96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91345,8 +91633,11 @@
       <c r="KX97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KZ97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92282,8 +92573,11 @@
       <c r="KX98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KZ98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93219,8 +93513,11 @@
       <c r="KX99" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KZ99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94156,8 +94453,11 @@
       <c r="KX100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95093,7 +95393,10 @@
       <c r="KX101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -96030,8 +96333,11 @@
       <c r="KX102" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="KZ102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1396,8 +1396,17 @@
       <c r="KY1" s="2" t="n">
         <v>11174</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="2" t="n">
         <v>10977</v>
+      </c>
+      <c r="LA1" s="2" t="n">
+        <v>10983</v>
+      </c>
+      <c r="LB1" s="2" t="n">
+        <v>10992</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>10996</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2336,7 +2345,16 @@
       <c r="KY2" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3276,8 +3294,17 @@
       <c r="KY3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4216,8 +4243,17 @@
       <c r="KY4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5156,8 +5192,17 @@
       <c r="KY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6096,8 +6141,17 @@
       <c r="KY6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="LA6" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="LB6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7036,8 +7090,17 @@
       <c r="KY7" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="LA7" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB7" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7976,8 +8039,17 @@
       <c r="KY8" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LA8" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LB8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8916,7 +8988,16 @@
       <c r="KY9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9856,8 +9937,17 @@
       <c r="KY10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LA10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10796,8 +10886,17 @@
       <c r="KY11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="LA11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="LB11" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11736,8 +11835,17 @@
       <c r="KY12" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="LA12" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="LB12" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="LC12" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12676,8 +12784,17 @@
       <c r="KY13" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="LA13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="LB13" s="2" t="n">
+        <v>315</v>
+      </c>
+      <c r="LC13" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13616,8 +13733,17 @@
       <c r="KY14" s="2" t="n">
         <v>1.39</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="LA14" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="LB14" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="LC14" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14556,8 +14682,17 @@
       <c r="KY15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="LA15" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="LB15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LC15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15496,8 +15631,17 @@
       <c r="KY16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LA16" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="LB16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LC16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16436,8 +16580,17 @@
       <c r="KY17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LA17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LB17" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LC17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17376,8 +17529,17 @@
       <c r="KY18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LA18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LC18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18316,8 +18478,17 @@
       <c r="KY19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LA19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LB19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19256,8 +19427,17 @@
       <c r="KY20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LA20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LC20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20196,8 +20376,17 @@
       <c r="KY21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21136,8 +21325,17 @@
       <c r="KY22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22076,8 +22274,17 @@
       <c r="KY23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23016,8 +23223,17 @@
       <c r="KY24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LA24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LB24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23956,8 +24172,17 @@
       <c r="KY25" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="LA25" s="2" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="LB25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="LC25" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24896,8 +25121,17 @@
       <c r="KY26" s="2" t="n">
         <v>39.22</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="LA26" s="2" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="LB26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LC26" t="n">
+        <v>31.3</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25836,8 +26070,17 @@
       <c r="KY27" s="2" t="n">
         <v>18.58</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="2" t="n">
         <v>13.52</v>
+      </c>
+      <c r="LA27" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="LB27" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LC27" t="n">
+        <v>11.18</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26776,8 +27019,17 @@
       <c r="KY28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LA28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LC28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27716,8 +27968,17 @@
       <c r="KY29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LA29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="LC29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28656,8 +28917,17 @@
       <c r="KY30" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LA30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LB30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29596,8 +29866,17 @@
       <c r="KY31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LA31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LB31" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30536,8 +30815,17 @@
       <c r="KY32" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="LA32" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="LB32" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="LC32" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31476,8 +31764,17 @@
       <c r="KY33" s="2" t="n">
         <v>5.67</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="2" t="n">
         <v>3.31</v>
+      </c>
+      <c r="LA33" s="2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="LB33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC33" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32416,8 +32713,17 @@
       <c r="KY34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="2" t="n">
         <v>50.9</v>
+      </c>
+      <c r="LA34" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="LB34" s="2" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="LC34" t="n">
+        <v>52.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33356,8 +33662,17 @@
       <c r="KY35" s="2" t="n">
         <v>17.6</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="2" t="n">
         <v>30.2</v>
+      </c>
+      <c r="LA35" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LB35" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="LC35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34296,8 +34611,17 @@
       <c r="KY36" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="LA36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="LB36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LC36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35236,8 +35560,17 @@
       <c r="KY37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="LA37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="LB37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="LC37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36176,8 +36509,17 @@
       <c r="KY38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="LA38" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="LB38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LC38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37116,8 +37458,17 @@
       <c r="KY39" s="2" t="n">
         <v>109.4</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="2" t="n">
         <v>113.7</v>
+      </c>
+      <c r="LA39" s="2" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="LB39" s="2" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="LC39" t="n">
+        <v>118.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38056,8 +38407,17 @@
       <c r="KY40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38996,8 +39356,17 @@
       <c r="KY41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39936,7 +40305,16 @@
       <c r="KY42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40876,7 +41254,16 @@
       <c r="KY43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LA43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LC43" t="n">
         <v>12</v>
       </c>
     </row>
@@ -41816,8 +42203,17 @@
       <c r="KY44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="LA44" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="LB44" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42756,8 +43152,17 @@
       <c r="KY45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="LA45" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="LB45" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="LC45" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43696,8 +44101,17 @@
       <c r="KY46" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="LA46" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="LB46" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="LC46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44636,8 +45050,17 @@
       <c r="KY47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="LA47" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="LB47" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="LC47" t="n">
+        <v>70.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45576,8 +45999,17 @@
       <c r="KY48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LA48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="LC48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46516,8 +46948,17 @@
       <c r="KY49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47456,8 +47897,17 @@
       <c r="KY50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48396,8 +48846,17 @@
       <c r="KY51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LA51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LC51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49336,8 +49795,17 @@
       <c r="KY52" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LA52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LB52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50276,8 +50744,17 @@
       <c r="KY53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LA53" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LB53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LC53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51216,7 +51693,16 @@
       <c r="KY54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52156,8 +52642,17 @@
       <c r="KY55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53096,8 +53591,17 @@
       <c r="KY56" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="LA56" s="2" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="LB56" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LC56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54036,8 +54540,17 @@
       <c r="KY57" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="LA57" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="LB57" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="LC57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54976,8 +55489,17 @@
       <c r="KY58" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="LA58" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="LB58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="LC58" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55916,8 +56438,17 @@
       <c r="KY59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="LA59" s="2" t="n">
+        <v>383</v>
+      </c>
+      <c r="LB59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="LC59" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56856,8 +57387,17 @@
       <c r="KY60" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="LA60" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="LB60" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="LC60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57796,8 +58336,17 @@
       <c r="KY61" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="LA61" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="LB61" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="LC61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58736,8 +59285,17 @@
       <c r="KY62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LB62" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="LC62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59676,8 +60234,17 @@
       <c r="KY63" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="LA63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LB63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LC63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60616,8 +61183,17 @@
       <c r="KY64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LA64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LB64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61556,8 +62132,17 @@
       <c r="KY65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LA65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LC65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62496,8 +63081,17 @@
       <c r="KY66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LA66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63436,8 +64030,17 @@
       <c r="KY67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64376,8 +64979,17 @@
       <c r="KY68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LA68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65316,8 +65928,17 @@
       <c r="KY69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66256,8 +66877,17 @@
       <c r="KY70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LA70" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67196,8 +67826,17 @@
       <c r="KY71" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="LA71" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="LB71" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="LC71" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68136,8 +68775,17 @@
       <c r="KY72" s="2" t="n">
         <v>29.75</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="2" t="n">
         <v>40.22</v>
+      </c>
+      <c r="LA72" s="2" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="LB72" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LC72" t="n">
+        <v>46.12</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69076,8 +69724,17 @@
       <c r="KY73" s="2" t="n">
         <v>13.73</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="2" t="n">
         <v>19.05</v>
+      </c>
+      <c r="LA73" s="2" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="LB73" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="LC73" t="n">
+        <v>16.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70016,8 +70673,17 @@
       <c r="KY74" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA74" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LB74" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LC74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70956,8 +71622,17 @@
       <c r="KY75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="LA75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LB75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="LC75" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71896,8 +72571,17 @@
       <c r="KY76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LB76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LC76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72836,8 +73520,17 @@
       <c r="KY77" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LA77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LB77" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LC77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73776,8 +74469,17 @@
       <c r="KY78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="2" t="n">
         <v>2.79</v>
+      </c>
+      <c r="LA78" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="LB78" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="LC78" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74716,8 +75418,17 @@
       <c r="KY79" s="2" t="n">
         <v>5.42</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="LA79" s="2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="LB79" s="2" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="LC79" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75656,8 +76367,17 @@
       <c r="KY80" s="2" t="n">
         <v>33.8</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA80" s="2" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="LB80" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="LC80" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76596,8 +77316,17 @@
       <c r="KY81" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LA81" s="2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="LB81" s="2" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="LC81" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77536,8 +78265,17 @@
       <c r="KY82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="LA82" s="2" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="LB82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="LC82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78476,8 +79214,17 @@
       <c r="KY83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="LA83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="LB83" s="2" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="LC83" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79416,8 +80163,17 @@
       <c r="KY84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="LA84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LB84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="LC84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80356,8 +81112,17 @@
       <c r="KY85" s="2" t="n">
         <v>105.3</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="2" t="n">
         <v>106.6</v>
+      </c>
+      <c r="LA85" s="2" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="LB85" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="LC85" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81296,8 +82061,17 @@
       <c r="KY86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82236,8 +83010,17 @@
       <c r="KY87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83176,8 +83959,17 @@
       <c r="KY88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84116,8 +84908,17 @@
       <c r="KY89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85056,8 +85857,17 @@
       <c r="KY90" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="LA90" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="LB90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="LC90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86806,17 @@
       <c r="KY91" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="LA91" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="LB91" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="LC91" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86936,8 +87755,17 @@
       <c r="KY92" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="LA92" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="LB92" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="LC92" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87876,8 +88704,17 @@
       <c r="KY93" s="2" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="LA93" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="LB93" s="2" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="LC93" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88816,8 +89653,17 @@
       <c r="KY94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="LA94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LB94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="LC94" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89756,7 +90602,16 @@
       <c r="KY95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LA95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -90696,8 +91551,17 @@
       <c r="KY96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LA96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91636,8 +92500,17 @@
       <c r="KY97" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA97" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LB97" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LC97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92576,8 +93449,17 @@
       <c r="KY98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LB98" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LC98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93516,8 +94398,17 @@
       <c r="KY99" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="LA99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LB99" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LC99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94456,8 +95347,17 @@
       <c r="KY100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95396,8 +96296,17 @@
       <c r="KY101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96336,8 +97245,17 @@
       <c r="KY102" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="LA102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="LB102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="LC102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Melbourne_stats.xlsx
+++ b/AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JZ81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KF85" activeCellId="0" sqref="KF85"/>
@@ -1405,8 +1405,20 @@
       <c r="LB1" s="2" t="n">
         <v>10992</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="2" t="n">
         <v>10996</v>
+      </c>
+      <c r="LD1" s="2" t="n">
+        <v>11005</v>
+      </c>
+      <c r="LE1" s="2" t="n">
+        <v>11021</v>
+      </c>
+      <c r="LF1" s="2" t="n">
+        <v>11034</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>11039</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2354,7 +2366,19 @@
       <c r="LB2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3303,8 +3327,20 @@
       <c r="LB3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4252,7 +4288,19 @@
       <c r="LB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5201,8 +5249,20 @@
       <c r="LB5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6150,8 +6210,20 @@
       <c r="LB6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="LD6" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LE6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="LF6" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7099,8 +7171,20 @@
       <c r="LB7" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="LD7" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="LE7" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LF7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8048,8 +8132,20 @@
       <c r="LB8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LD8" s="2" t="n">
+        <v>-22</v>
+      </c>
+      <c r="LE8" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LF8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8997,8 +9093,20 @@
       <c r="LB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9946,8 +10054,20 @@
       <c r="LB10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LD10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10895,8 +11015,20 @@
       <c r="LB11" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="LD11" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="LE11" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="LF11" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="LG11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11844,8 +11976,20 @@
       <c r="LB12" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="LD12" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="LE12" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="LF12" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="LG12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12793,8 +12937,20 @@
       <c r="LB13" s="2" t="n">
         <v>315</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="2" t="n">
         <v>313</v>
+      </c>
+      <c r="LD13" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="LE13" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="LF13" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="LG13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13742,8 +13898,20 @@
       <c r="LB14" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="LD14" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="LE14" s="2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="LF14" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="LG14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14691,8 +14859,20 @@
       <c r="LB15" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="LD15" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="LE15" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="LF15" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="LG15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15640,8 +15820,20 @@
       <c r="LB16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LD16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LE16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LF16" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LG16" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16589,8 +16781,20 @@
       <c r="LB17" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LD17" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="LE17" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LF17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LG17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17538,8 +17742,20 @@
       <c r="LB18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LF18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18487,8 +18703,20 @@
       <c r="LB19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LD19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LE19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LF19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19436,8 +19664,20 @@
       <c r="LB20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LD20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LF20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20385,8 +20625,20 @@
       <c r="LB21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21334,8 +21586,20 @@
       <c r="LB22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LD22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF22" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22283,8 +22547,20 @@
       <c r="LB23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23232,8 +23508,20 @@
       <c r="LB24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LD24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LE24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LF24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LG24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24181,8 +24469,20 @@
       <c r="LB25" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="LD25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE25" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LF25" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="LG25" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25130,8 +25430,20 @@
       <c r="LB26" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="2" t="n">
         <v>31.3</v>
+      </c>
+      <c r="LD26" s="2" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="LE26" s="2" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="LF26" s="2" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="LG26" t="n">
+        <v>32.91</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -26079,8 +26391,20 @@
       <c r="LB27" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="2" t="n">
         <v>11.18</v>
+      </c>
+      <c r="LD27" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="LE27" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="LF27" s="2" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="LG27" t="n">
+        <v>17.24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -27028,8 +27352,20 @@
       <c r="LB28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LD28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LE28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LF28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LG28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27977,8 +28313,20 @@
       <c r="LB29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD29" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LE29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LF29" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LG29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28926,8 +29274,20 @@
       <c r="LB30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LD30" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LE30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LF30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29875,8 +30235,20 @@
       <c r="LB31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="LD31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LE31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LF31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LG31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30824,8 +31196,20 @@
       <c r="LB32" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="LD32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="LE32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="LF32" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="LG32" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31773,8 +32157,20 @@
       <c r="LB33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="2" t="n">
         <v>4.8</v>
+      </c>
+      <c r="LD33" s="2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="LE33" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="LF33" s="2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="LG33" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32722,8 +33118,20 @@
       <c r="LB34" s="2" t="n">
         <v>42.2</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="2" t="n">
         <v>52.1</v>
+      </c>
+      <c r="LD34" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LE34" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LF34" s="2" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="LG34" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33671,8 +34079,20 @@
       <c r="LB35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="2" t="n">
         <v>20.8</v>
+      </c>
+      <c r="LD35" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE35" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LF35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="LG35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34620,8 +35040,20 @@
       <c r="LB36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="LD36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="LE36" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="LF36" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="LG36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35569,8 +36001,20 @@
       <c r="LB37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="LD37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="LE37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LF37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LG37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36518,8 +36962,20 @@
       <c r="LB38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="LD38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LE38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="LF38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="LG38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37467,8 +37923,20 @@
       <c r="LB39" s="2" t="n">
         <v>108.9</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="2" t="n">
         <v>118.7</v>
+      </c>
+      <c r="LD39" s="2" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="LE39" s="2" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="LF39" s="2" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="LG39" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38416,8 +38884,20 @@
       <c r="LB40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39365,7 +39845,19 @@
       <c r="LB41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40314,7 +40806,19 @@
       <c r="LB42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41263,8 +41767,20 @@
       <c r="LB43" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LD43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -42212,8 +42728,20 @@
       <c r="LB44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="LD44" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="LE44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LF44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="LG44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43161,8 +43689,20 @@
       <c r="LB45" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="LD45" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="LE45" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="LF45" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="LG45" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -44110,8 +44650,20 @@
       <c r="LB46" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="LD46" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="LE46" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="LF46" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="LG46" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -45059,8 +45611,20 @@
       <c r="LB47" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="2" t="n">
         <v>70.3</v>
+      </c>
+      <c r="LD47" s="2" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="LE47" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="LF47" s="2" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="LG47" t="n">
+        <v>68.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -46008,8 +46572,20 @@
       <c r="LB48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD48" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LE48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LF48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LG48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46957,8 +47533,20 @@
       <c r="LB49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LD49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LE49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LG49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47906,8 +48494,20 @@
       <c r="LB50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LD50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48855,8 +49455,20 @@
       <c r="LB51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LD51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LE51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LF51" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LG51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49804,8 +50416,20 @@
       <c r="LB52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LD52" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LE52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LF52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50753,8 +51377,20 @@
       <c r="LB53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LD53" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LE53" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LF53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51702,8 +52338,20 @@
       <c r="LB54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LD54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52651,8 +53299,20 @@
       <c r="LB55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53600,8 +54260,20 @@
       <c r="LB56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LD56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="LE56" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="LF56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LG56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54549,8 +55221,20 @@
       <c r="LB57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="LD57" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="LE57" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="LF57" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="LG57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55498,8 +56182,20 @@
       <c r="LB58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="LD58" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="LE58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="LF58" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="LG58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56447,8 +57143,20 @@
       <c r="LB59" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="LD59" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="LE59" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="LF59" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="LG59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57396,8 +58104,20 @@
       <c r="LB60" s="2" t="n">
         <v>1.51</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="LD60" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LE60" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="LF60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="LG60" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58345,8 +59065,20 @@
       <c r="LB61" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="LD61" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="LE61" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LF61" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="LG61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59294,8 +60026,20 @@
       <c r="LB62" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="LD62" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="LE62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LF62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LG62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60243,8 +60987,20 @@
       <c r="LB63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LE63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LF63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LG63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61192,8 +61948,20 @@
       <c r="LB64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LD64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LE64" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LF64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -62141,8 +62909,20 @@
       <c r="LB65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD65" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LF65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -63090,8 +63870,20 @@
       <c r="LB66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -64039,7 +64831,19 @@
       <c r="LB67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG67" t="n">
         <v>8</v>
       </c>
     </row>
@@ -64988,8 +65792,20 @@
       <c r="LB68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LD68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65937,8 +66753,20 @@
       <c r="LB69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66886,8 +67714,20 @@
       <c r="LB70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LE70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LG70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67835,8 +68675,20 @@
       <c r="LB71" s="2" t="n">
         <v>54.2</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="LD71" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="LE71" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="LF71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="LG71" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68784,8 +69636,20 @@
       <c r="LB72" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="2" t="n">
         <v>46.12</v>
+      </c>
+      <c r="LD72" s="2" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="LE72" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="LF72" s="2" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="LG72" t="n">
+        <v>29.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69733,8 +70597,20 @@
       <c r="LB73" s="2" t="n">
         <v>14.62</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="2" t="n">
         <v>16.04</v>
+      </c>
+      <c r="LD73" s="2" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="LE73" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LF73" s="2" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="LG73" t="n">
+        <v>20.94</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70682,8 +71558,20 @@
       <c r="LB74" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LD74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE74" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF74" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LG74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71631,8 +72519,20 @@
       <c r="LB75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LD75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LE75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="LF75" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="LG75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72580,8 +73480,20 @@
       <c r="LB76" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LD76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LF76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73529,8 +74441,20 @@
       <c r="LB77" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD77" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="LE77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LF77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LG77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74478,8 +75402,20 @@
       <c r="LB78" s="2" t="n">
         <v>2.75</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="LD78" s="2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="LE78" s="2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="LF78" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="LG78" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75427,8 +76363,20 @@
       <c r="LB79" s="2" t="n">
         <v>5.08</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="2" t="n">
         <v>6.75</v>
+      </c>
+      <c r="LD79" s="2" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="LE79" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF79" s="2" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="LG79" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76376,8 +77324,20 @@
       <c r="LB80" s="2" t="n">
         <v>34.8</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="2" t="n">
         <v>35.2</v>
+      </c>
+      <c r="LD80" s="2" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="LE80" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LF80" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG80" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77325,8 +78285,20 @@
       <c r="LB81" s="2" t="n">
         <v>19.7</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="2" t="n">
         <v>14.8</v>
+      </c>
+      <c r="LD81" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="LE81" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LG81" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78274,8 +79246,20 @@
       <c r="LB82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="LD82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LE82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LF82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LG82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -79223,8 +80207,20 @@
       <c r="LB83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="LD83" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="LE83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="LF83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="LG83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -80172,8 +81168,20 @@
       <c r="LB84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="LD84" s="2" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="LE84" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="LF84" s="2" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="LG84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -81121,8 +82129,20 @@
       <c r="LB85" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="LD85" s="2" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="LE85" s="2" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="LF85" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="LG85" t="n">
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -82070,8 +83090,20 @@
       <c r="LB86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LD86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -83019,8 +84051,20 @@
       <c r="LB87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83968,8 +85012,20 @@
       <c r="LB88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84917,8 +85973,20 @@
       <c r="LB89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD89" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85866,8 +86934,20 @@
       <c r="LB90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="LD90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="LE90" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="LF90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LG90" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86815,8 +87895,20 @@
       <c r="LB91" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="LD91" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="LE91" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="LF91" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="LG91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87764,8 +88856,20 @@
       <c r="LB92" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="LD92" s="2" t="n">
+        <v>286</v>
+      </c>
+      <c r="LE92" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="LF92" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="LG92" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88713,8 +89817,20 @@
       <c r="LB93" s="2" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="LD93" s="2" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="LE93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="LF93" s="2" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="LG93" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89662,8 +90778,20 @@
       <c r="LB94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LD94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LE94" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="LF94" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="LG94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90611,8 +91739,20 @@
       <c r="LB95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91560,8 +92700,20 @@
       <c r="LB96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92509,8 +93661,20 @@
       <c r="LB97" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LD97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE97" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF97" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LG97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -93458,8 +94622,20 @@
       <c r="LB98" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LD98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LF98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94407,8 +95583,20 @@
       <c r="LB99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LD99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LE99" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LF99" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="LG99" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -95356,7 +96544,19 @@
       <c r="LB100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LE100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -96305,7 +97505,19 @@
       <c r="LB101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -97254,8 +98466,20 @@
       <c r="LB102" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="LD102" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="LE102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="LF102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="LG102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>
